--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7350" activeTab="4"/>
+    <workbookView xWindow="6323" yWindow="3810" windowWidth="12878" windowHeight="3413" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BRPSPTY" sheetId="2" r:id="rId2"/>
     <sheet name="SB100 RPS and sales adjustment" sheetId="5" r:id="rId3"/>
     <sheet name="Account for imports+small hydro" sheetId="10" r:id="rId4"/>
-    <sheet name="IRP excerpts" sheetId="17" r:id="rId5"/>
-    <sheet name="EIA-CHP Table 10" sheetId="13" r:id="rId6"/>
-    <sheet name="CAISO 2017 load" sheetId="18" r:id="rId7"/>
-    <sheet name="IPER 2017" sheetId="19" r:id="rId8"/>
-    <sheet name="CHP time series" sheetId="14" r:id="rId9"/>
-    <sheet name="CHP notes from the IRP" sheetId="16" r:id="rId10"/>
+    <sheet name="IRP-2019-2020" sheetId="21" r:id="rId5"/>
+    <sheet name="IRP excerpts" sheetId="17" r:id="rId6"/>
+    <sheet name="EIA-CHP Table 10" sheetId="13" r:id="rId7"/>
+    <sheet name="CAISO 2017 load" sheetId="18" r:id="rId8"/>
+    <sheet name="IPER 2017" sheetId="19" r:id="rId9"/>
+    <sheet name="CHP time series" sheetId="14" r:id="rId10"/>
+    <sheet name="CHP notes from the IRP" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
   <si>
     <t>BRPSPTY BAU Renewable Portfolio Std Percentage This Year</t>
   </si>
@@ -637,9 +638,6 @@
     <t>Imported hyro and nuclear</t>
   </si>
   <si>
-    <t>Establish RPS qualifying generation (retail sales)</t>
-  </si>
-  <si>
     <t>Table 10, Supply and disposition</t>
   </si>
   <si>
@@ -649,21 +647,9 @@
     <t>EPS output</t>
   </si>
   <si>
-    <t xml:space="preserve">Establish RPS-bound fraction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator in RPS % calculation </t>
-  </si>
-  <si>
     <t>Needed MWh</t>
   </si>
   <si>
-    <t>cell 039, directly calculated value shows 59.4% renewables in RPB bound fraction.</t>
-  </si>
-  <si>
-    <t>Increase to .6 in order to achieve the 60% level.</t>
-  </si>
-  <si>
     <t>Elec Demand Including TnD Losses : BAU</t>
   </si>
   <si>
@@ -676,31 +662,56 @@
     <t>Fraction of electricity consumption considered retail</t>
   </si>
   <si>
-    <t>RPS-fraction translated to system demand (not retail fraction)</t>
-  </si>
-  <si>
     <t>After TnD losses</t>
   </si>
   <si>
     <t xml:space="preserve">Additional fraction needed </t>
   </si>
   <si>
-    <t>calibrated to achieve 60% RPS</t>
-  </si>
-  <si>
-    <t>calibrated by rounding up to 45%, nearest %</t>
+    <t>https://www.cpuc.ca.gov/uploadedFiles/CPUCWebsite/Content/UtilitiesIndustries/Energy/EnergyPrograms/ElectPowerProcurementGeneration/irp/2018/2019%20IRP%20Preliminary%20Results%2020191004.pdf</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Before accounting for retail sales fraction (requirement In MWh based on BAU electricity demand)</t>
+  </si>
+  <si>
+    <t>RPS requirement In MWh based on BAU electricity demand (apply retail scalar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail sales denominator for RPS % calculation </t>
+  </si>
+  <si>
+    <t>System sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS-bound fraction </t>
+  </si>
+  <si>
+    <t>Approximate curtailment</t>
+  </si>
+  <si>
+    <t>Need MWh factoring in approximate curtailment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase slightly because results coming in below </t>
+  </si>
+  <si>
+    <t>round up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000000%"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -943,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,12 +1170,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1353,7 +1358,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1447,17 +1452,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1467,7 +1471,7 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1618,6 +1622,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>469901</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>107951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="469901" y="2165351"/>
+          <a:ext cx="6746064" cy="4940300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1730,7 +1777,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1773,7 +1820,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1816,7 +1863,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2258,10 +2305,10 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="122.7265625" customWidth="1"/>
+    <col min="2" max="2" width="122.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -2292,79 +2339,79 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2372,237 +2419,237 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B44" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B45" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B46" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B47" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B52" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B53" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B55" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B56" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B59" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" ht="145" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B61" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B72"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" s="16"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:2" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="20" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B80" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" s="17"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="17"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" s="17"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" s="17"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" s="17"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="17"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" s="17"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="17"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" s="17"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="17"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" s="17"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" s="17"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" s="17"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="17"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" s="17"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="17"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" s="17"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" s="17"/>
     </row>
   </sheetData>
@@ -2618,24 +2665,336 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="69.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.46484375" customWidth="1"/>
+    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A3"/>
+      <c r="B3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="str">
+        <f>'EIA-CHP Table 10'!$A$23</f>
+        <v>Total electric industry retail sales</v>
+      </c>
+      <c r="B4" s="33">
+        <f>'EIA-CHP Table 10'!$B$23</f>
+        <v>257267937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="str">
+        <f>'EIA-CHP Table 10'!A17</f>
+        <v>Total supply</v>
+      </c>
+      <c r="B5" s="17">
+        <f>'EIA-CHP Table 10'!B17</f>
+        <v>286228469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="str">
+        <f>'EIA-CHP Table 10'!A25</f>
+        <v>Total international exports</v>
+      </c>
+      <c r="B6" s="17">
+        <f>'EIA-CHP Table 10'!B25</f>
+        <v>459224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="str">
+        <f>'EIA-CHP Table 10'!A23</f>
+        <v>Total electric industry retail sales</v>
+      </c>
+      <c r="B10" s="17">
+        <f>'EIA-CHP Table 10'!B23</f>
+        <v>257267937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="32">
+        <f>'EIA-CHP Table 10'!$B$13</f>
+        <v>16382372</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="str">
+        <f>'EIA-CHP Table 10'!A27</f>
+        <v>Unaccounted</v>
+      </c>
+      <c r="B12" s="32">
+        <f>'EIA-CHP Table 10'!B27</f>
+        <v>1711477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="36">
+        <f>B11+B12</f>
+        <v>18093849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="17">
+        <f>B10/SUM(B10:B12)</f>
+        <v>0.9342906317436509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="str">
+        <f>'CHP notes from the IRP'!K4</f>
+        <v>% decline</v>
+      </c>
+      <c r="B17" s="17">
+        <f>'CHP notes from the IRP'!L4</f>
+        <v>0.83543286649820914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="17">
+        <f>1-B17</f>
+        <v>0.16456713350179086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B20" s="17">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="17">
+        <f>B20+1</f>
+        <v>2018</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" ref="D20:N20" si="0">C20+1</f>
+        <v>2019</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="K20" s="17">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="O20" s="17">
+        <f>N20+1</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B21" s="37">
+        <v>1</v>
+      </c>
+      <c r="C21" s="44">
+        <f>B21-($B$21-$O$21)/13</f>
+        <v>0.93573593334629157</v>
+      </c>
+      <c r="D21" s="44">
+        <f t="shared" ref="D21:N21" si="1">C21-($B$21-$O$21)/13</f>
+        <v>0.87147186669258314</v>
+      </c>
+      <c r="E21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.80720780003887471</v>
+      </c>
+      <c r="F21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.74294373338516628</v>
+      </c>
+      <c r="G21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.67867966673145785</v>
+      </c>
+      <c r="H21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.61441560007774942</v>
+      </c>
+      <c r="I21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.55015153342404099</v>
+      </c>
+      <c r="J21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.48588746677033257</v>
+      </c>
+      <c r="K21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.42162340011662414</v>
+      </c>
+      <c r="L21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.35735933346291571</v>
+      </c>
+      <c r="M21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.29309526680920728</v>
+      </c>
+      <c r="N21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.22883120015549888</v>
+      </c>
+      <c r="O21" s="37">
+        <f>$B$18</f>
+        <v>0.16456713350179086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="17" t="str">
+        <f>'EIA-CHP Table 10'!A9</f>
+        <v>..Combined heat and power, electric</v>
+      </c>
+      <c r="B28" s="17">
+        <f>'EIA-CHP Table 10'!B9</f>
+        <v>15865433</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29"/>
+      <c r="B29" t="str">
+        <f>'EIA-CHP Table 10'!B5</f>
+        <v/>
+      </c>
+      <c r="C29"/>
+      <c r="D29" s="8"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B30" t="str">
+        <f>'EIA-CHP Table 10'!B6</f>
+        <v/>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D31" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D32" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>159</v>
       </c>
@@ -2646,7 +3005,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -2658,7 +3017,7 @@
         <v>16382.371999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="K4" t="s">
         <v>163</v>
       </c>
@@ -2667,20 +3026,20 @@
         <v>0.83543286649820914</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="34"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
         <v>157</v>
       </c>
@@ -2701,16 +3060,16 @@
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2822,140 +3181,124 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <f>'SB100 RPS and sales adjustment'!B26</f>
-        <v>0.1556443663138761</v>
+        <f>'SB100 RPS and sales adjustment'!B34</f>
+        <v>0.15392687614757614</v>
       </c>
       <c r="C2" s="5">
-        <f>'SB100 RPS and sales adjustment'!C26</f>
-        <v>0.17316665930548478</v>
+        <f>'SB100 RPS and sales adjustment'!C34</f>
+        <v>0.17273646469629689</v>
       </c>
       <c r="D2" s="5">
-        <f>'SB100 RPS and sales adjustment'!D26</f>
-        <v>0.19516833699154532</v>
+        <f>'SB100 RPS and sales adjustment'!D34</f>
+        <v>0.19637058380347452</v>
       </c>
       <c r="E2" s="5">
-        <f>'SB100 RPS and sales adjustment'!E26</f>
-        <v>0.21723269721845953</v>
+        <f>'SB100 RPS and sales adjustment'!E34</f>
+        <v>0.22008218010014863</v>
       </c>
       <c r="F2" s="5">
-        <f>'SB100 RPS and sales adjustment'!F26</f>
-        <v>0.23928300971653155</v>
+        <f>'SB100 RPS and sales adjustment'!F34</f>
+        <v>0.24377641305234626</v>
       </c>
       <c r="G2" s="5">
-        <f>'SB100 RPS and sales adjustment'!G26</f>
-        <v>0.26128743080279176</v>
+        <f>'SB100 RPS and sales adjustment'!G34</f>
+        <v>0.26741392307084044</v>
       </c>
       <c r="H2" s="5">
-        <f>'SB100 RPS and sales adjustment'!H26</f>
-        <v>0.28328017464948402</v>
+        <f>'SB100 RPS and sales adjustment'!H34</f>
+        <v>0.29103699972893665</v>
       </c>
       <c r="I2" s="5">
-        <f>'SB100 RPS and sales adjustment'!I26</f>
-        <v>0.30523640388126067</v>
+        <f>'SB100 RPS and sales adjustment'!I34</f>
+        <v>0.31461494340900287</v>
       </c>
       <c r="J2" s="5">
-        <f>'SB100 RPS and sales adjustment'!J26</f>
-        <v>0.33172290887049211</v>
+        <f>'SB100 RPS and sales adjustment'!J34</f>
+        <v>0.34308032027524743</v>
       </c>
       <c r="K2" s="5">
-        <f>'SB100 RPS and sales adjustment'!K26</f>
-        <v>0.35806255026046352</v>
+        <f>'SB100 RPS and sales adjustment'!K34</f>
+        <v>0.37136417005667594</v>
       </c>
       <c r="L2" s="5">
-        <f>'SB100 RPS and sales adjustment'!L26</f>
-        <v>0.37559749860121305</v>
+        <f>'SB100 RPS and sales adjustment'!L34</f>
+        <v>0.39018940093370985</v>
       </c>
       <c r="M2" s="5">
-        <f>'SB100 RPS and sales adjustment'!M26</f>
-        <v>0.39889174747630152</v>
+        <f>'SB100 RPS and sales adjustment'!M34</f>
+        <v>0.41518380336910399</v>
       </c>
       <c r="N2" s="5">
-        <f>'SB100 RPS and sales adjustment'!N26</f>
-        <v>0.42227370191349883</v>
+        <f>'SB100 RPS and sales adjustment'!N34</f>
+        <v>0.44028661207461534</v>
       </c>
       <c r="O2" s="5">
-        <f>'SB100 RPS and sales adjustment'!O26</f>
-        <v>0.44593388407412088</v>
+        <f>'SB100 RPS and sales adjustment'!$O$36</f>
+        <v>0.46750000000000003</v>
       </c>
       <c r="P2" s="5">
-        <f>O2</f>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <f t="shared" ref="Q2:AI2" si="0">P2</f>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="R2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="T2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="U2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="V2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="W2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="X2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <f t="shared" ref="Q2:AI2" si="0">AE2</f>
+        <v>0</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="5">
         <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="5">
         <f t="shared" si="0"/>
-        <v>0.44593388407412088</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2966,27 +3309,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="74.7265625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="74.73046875" style="8" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.7265625" style="8"/>
-    <col min="15" max="15" width="13.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="8"/>
+    <col min="3" max="4" width="8.73046875" style="8"/>
+    <col min="5" max="5" width="12.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="8.73046875" style="8"/>
+    <col min="15" max="15" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.73046875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B2" s="8">
         <v>2017</v>
       </c>
@@ -3123,7 +3468,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="I3" s="8">
         <v>0.44</v>
       </c>
@@ -3140,7 +3485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -3151,7 +3496,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="D5" s="8">
         <f>C4+($I$3-$C$4)/6</f>
         <v>0.315</v>
@@ -3193,7 +3538,7 @@
         <v>0.59999999999999987</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -3334,1627 +3679,1820 @@
         <v>0.59999999999999987</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="7" spans="1:35" ht="17.2" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:35" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="19">
+        <f>B6*B19</f>
+        <v>76529755.800000012</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" ref="C9:O9" si="4">C6*C19</f>
+        <v>82005791.099999994</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="4"/>
+        <v>88919406.450000003</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="4"/>
+        <v>95880377.400000006</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="4"/>
+        <v>102810239.85000001</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="4"/>
+        <v>109664158.50000001</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="4"/>
+        <v>116478552.15000002</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="4"/>
+        <v>123214621.20000003</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="4"/>
+        <v>131473123.5</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="4"/>
+        <v>139472100</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="4"/>
+        <v>144737611.20000002</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="4"/>
+        <v>151570817.19999999</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="4"/>
+        <v>158513428.39999998</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" si="4"/>
+        <v>165954221.99999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="19">
+        <f t="shared" ref="B10:O10" si="5">B9*B23</f>
+        <v>72903978.676410541</v>
+      </c>
+      <c r="C10" s="19">
+        <f t="shared" si="5"/>
+        <v>78120573.928403616</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="5"/>
+        <v>84706640.495380759</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="5"/>
+        <v>91337819.079461828</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="5"/>
+        <v>97939363.001875043</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="5"/>
+        <v>104468561.14037809</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" si="5"/>
+        <v>110960106.86869033</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="5"/>
+        <v>117377038.80909029</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="5"/>
+        <v>125244275.14461097</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="5"/>
+        <v>132864281.32512343</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="5"/>
+        <v>137880326.55135426</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="5"/>
+        <v>144389793.3503522</v>
+      </c>
+      <c r="N10" s="19">
+        <f t="shared" si="5"/>
+        <v>151003482.02075833</v>
+      </c>
+      <c r="O10" s="19">
+        <f t="shared" si="5"/>
+        <v>158091750.52860022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="51" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A14" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B17" s="8">
         <v>2017</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C17" s="8">
         <v>2018</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D17" s="8">
         <v>2019</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E17" s="8">
         <v>2020</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F17" s="8">
         <v>2021</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G17" s="8">
         <v>2022</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H17" s="8">
         <v>2023</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I17" s="8">
         <v>2024</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J17" s="8">
         <v>2025</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K17" s="8">
         <v>2026</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L17" s="8">
         <v>2027</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M17" s="8">
         <v>2028</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N17" s="8">
         <v>2029</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O17" s="8">
         <v>2030</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P17" s="8">
         <v>2031</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q17" s="8">
         <v>2032</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R17" s="8">
         <v>2033</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S17" s="8">
         <v>2034</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T17" s="8">
         <v>2035</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U17" s="8">
         <v>2036</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V17" s="8">
         <v>2037</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W17" s="8">
         <v>2038</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X17" s="8">
         <v>2039</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y17" s="8">
         <v>2040</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z17" s="8">
         <v>2041</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA17" s="8">
         <v>2042</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB17" s="8">
         <v>2043</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AC17" s="8">
         <v>2044</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AD17" s="8">
         <v>2045</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AE17" s="8">
         <v>2046</v>
       </c>
-      <c r="AF13" s="8">
+      <c r="AF17" s="8">
         <v>2047</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AG17" s="8">
         <v>2048</v>
       </c>
-      <c r="AH13" s="8">
+      <c r="AH17" s="8">
         <v>2049</v>
       </c>
-      <c r="AI13" s="8">
+      <c r="AI17" s="8">
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="19">
+    <row r="18" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="19">
         <v>304778000</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C18" s="19">
         <v>304063000</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D18" s="19">
         <v>303531000</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E18" s="19">
         <v>303227000</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F18" s="19">
         <v>302873000</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G18" s="19">
         <v>302355000</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H18" s="19">
         <v>301797000</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I18" s="19">
         <v>301111000</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J18" s="19">
         <v>300785000</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K18" s="19">
         <v>299940000</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L18" s="19">
         <v>299292000</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M18" s="19">
         <v>298133000</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N18" s="19">
         <v>297287000</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O18" s="19">
         <v>297409000</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P18" s="19">
         <v>297129000</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q18" s="19">
         <v>297379000</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R18" s="19">
         <v>297426000</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S18" s="19">
         <v>297993000</v>
       </c>
-      <c r="T14" s="19">
+      <c r="T18" s="19">
         <v>298455000</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U18" s="19">
         <v>299552000</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V18" s="19">
         <v>300720000</v>
       </c>
-      <c r="W14" s="19">
+      <c r="W18" s="19">
         <v>302512000</v>
       </c>
-      <c r="X14" s="19">
+      <c r="X18" s="19">
         <v>304416000</v>
       </c>
-      <c r="Y14" s="19">
+      <c r="Y18" s="19">
         <v>306937000</v>
       </c>
-      <c r="Z14" s="19">
+      <c r="Z18" s="19">
         <v>309582000</v>
       </c>
-      <c r="AA14" s="19">
+      <c r="AA18" s="19">
         <v>312544000</v>
       </c>
-      <c r="AB14" s="19">
+      <c r="AB18" s="19">
         <v>316110000</v>
       </c>
-      <c r="AC14" s="19">
+      <c r="AC18" s="19">
         <v>319655000</v>
       </c>
-      <c r="AD14" s="19">
+      <c r="AD18" s="19">
         <v>323651000</v>
       </c>
-      <c r="AE14" s="19">
+      <c r="AE18" s="19">
         <v>327380000</v>
       </c>
-      <c r="AF14" s="19">
+      <c r="AF18" s="19">
         <v>331403000</v>
       </c>
-      <c r="AG14" s="19">
+      <c r="AG18" s="19">
         <v>334988000</v>
       </c>
-      <c r="AH14" s="19">
+      <c r="AH18" s="19">
         <v>338755000</v>
       </c>
-      <c r="AI14" s="19">
+      <c r="AI18" s="19">
         <v>341987000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="19">
-        <f>B14-B14*0.07</f>
+    <row r="19" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="19">
+        <f>B18-B18*0.07</f>
         <v>283443540</v>
       </c>
-      <c r="C15" s="19">
-        <f t="shared" ref="C15:AI15" si="4">C14-C14*0.07</f>
+      <c r="C19" s="19">
+        <f t="shared" ref="C19:AI19" si="6">C18-C18*0.07</f>
         <v>282778590</v>
       </c>
-      <c r="D15" s="19">
-        <f t="shared" si="4"/>
+      <c r="D19" s="19">
+        <f t="shared" si="6"/>
         <v>282283830</v>
       </c>
-      <c r="E15" s="19">
-        <f t="shared" si="4"/>
+      <c r="E19" s="19">
+        <f t="shared" si="6"/>
         <v>282001110</v>
       </c>
-      <c r="F15" s="19">
-        <f t="shared" si="4"/>
+      <c r="F19" s="19">
+        <f t="shared" si="6"/>
         <v>281671890</v>
       </c>
-      <c r="G15" s="19">
-        <f t="shared" si="4"/>
+      <c r="G19" s="19">
+        <f t="shared" si="6"/>
         <v>281190150</v>
       </c>
-      <c r="H15" s="19">
-        <f t="shared" si="4"/>
+      <c r="H19" s="19">
+        <f t="shared" si="6"/>
         <v>280671210</v>
       </c>
-      <c r="I15" s="19">
-        <f t="shared" si="4"/>
+      <c r="I19" s="19">
+        <f t="shared" si="6"/>
         <v>280033230</v>
       </c>
-      <c r="J15" s="19">
-        <f t="shared" si="4"/>
+      <c r="J19" s="19">
+        <f t="shared" si="6"/>
         <v>279730050</v>
       </c>
-      <c r="K15" s="19">
-        <f t="shared" si="4"/>
+      <c r="K19" s="19">
+        <f t="shared" si="6"/>
         <v>278944200</v>
       </c>
-      <c r="L15" s="19">
-        <f t="shared" si="4"/>
+      <c r="L19" s="19">
+        <f t="shared" si="6"/>
         <v>278341560</v>
       </c>
-      <c r="M15" s="19">
-        <f t="shared" si="4"/>
+      <c r="M19" s="19">
+        <f t="shared" si="6"/>
         <v>277263690</v>
       </c>
-      <c r="N15" s="19">
-        <f t="shared" si="4"/>
+      <c r="N19" s="19">
+        <f t="shared" si="6"/>
         <v>276476910</v>
       </c>
-      <c r="O15" s="19">
-        <f t="shared" si="4"/>
+      <c r="O19" s="19">
+        <f t="shared" si="6"/>
         <v>276590370</v>
       </c>
-      <c r="P15" s="19">
-        <f t="shared" si="4"/>
+      <c r="P19" s="19">
+        <f t="shared" si="6"/>
         <v>276329970</v>
       </c>
-      <c r="Q15" s="19">
-        <f t="shared" si="4"/>
+      <c r="Q19" s="19">
+        <f t="shared" si="6"/>
         <v>276562470</v>
       </c>
-      <c r="R15" s="19">
-        <f t="shared" si="4"/>
+      <c r="R19" s="19">
+        <f t="shared" si="6"/>
         <v>276606180</v>
       </c>
-      <c r="S15" s="19">
-        <f t="shared" si="4"/>
+      <c r="S19" s="19">
+        <f t="shared" si="6"/>
         <v>277133490</v>
       </c>
-      <c r="T15" s="19">
-        <f t="shared" si="4"/>
+      <c r="T19" s="19">
+        <f t="shared" si="6"/>
         <v>277563150</v>
       </c>
-      <c r="U15" s="19">
-        <f t="shared" si="4"/>
+      <c r="U19" s="19">
+        <f t="shared" si="6"/>
         <v>278583360</v>
       </c>
-      <c r="V15" s="19">
-        <f t="shared" si="4"/>
+      <c r="V19" s="19">
+        <f t="shared" si="6"/>
         <v>279669600</v>
       </c>
-      <c r="W15" s="19">
-        <f t="shared" si="4"/>
+      <c r="W19" s="19">
+        <f t="shared" si="6"/>
         <v>281336160</v>
       </c>
-      <c r="X15" s="19">
-        <f t="shared" si="4"/>
+      <c r="X19" s="19">
+        <f t="shared" si="6"/>
         <v>283106880</v>
       </c>
-      <c r="Y15" s="19">
-        <f t="shared" si="4"/>
+      <c r="Y19" s="19">
+        <f t="shared" si="6"/>
         <v>285451410</v>
       </c>
-      <c r="Z15" s="19">
-        <f t="shared" si="4"/>
+      <c r="Z19" s="19">
+        <f t="shared" si="6"/>
         <v>287911260</v>
       </c>
-      <c r="AA15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AA19" s="19">
+        <f t="shared" si="6"/>
         <v>290665920</v>
       </c>
-      <c r="AB15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AB19" s="19">
+        <f t="shared" si="6"/>
         <v>293982300</v>
       </c>
-      <c r="AC15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AC19" s="19">
+        <f t="shared" si="6"/>
         <v>297279150</v>
       </c>
-      <c r="AD15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AD19" s="19">
+        <f t="shared" si="6"/>
         <v>300995430</v>
       </c>
-      <c r="AE15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AE19" s="19">
+        <f t="shared" si="6"/>
         <v>304463400</v>
       </c>
-      <c r="AF15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AF19" s="19">
+        <f t="shared" si="6"/>
         <v>308204790</v>
       </c>
-      <c r="AG15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AG19" s="19">
+        <f t="shared" si="6"/>
         <v>311538840</v>
       </c>
-      <c r="AH15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AH19" s="19">
+        <f t="shared" si="6"/>
         <v>315042150</v>
       </c>
-      <c r="AI15" s="19">
-        <f t="shared" si="4"/>
+      <c r="AI19" s="19">
+        <f t="shared" si="6"/>
         <v>318047910</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="19">
-        <f>'Account for imports+small hydro'!B34</f>
-        <v>25467000</v>
-      </c>
-      <c r="C16" s="19">
-        <f>'Account for imports+small hydro'!C34</f>
-        <v>25467000</v>
-      </c>
-      <c r="D16" s="19">
-        <f>'Account for imports+small hydro'!D34</f>
-        <v>25467000</v>
-      </c>
-      <c r="E16" s="19">
-        <f>'Account for imports+small hydro'!E34</f>
-        <v>25467000</v>
-      </c>
-      <c r="F16" s="19">
-        <f>'Account for imports+small hydro'!F34</f>
-        <v>25467000</v>
-      </c>
-      <c r="G16" s="19">
-        <f>'Account for imports+small hydro'!G34</f>
-        <v>25467000</v>
-      </c>
-      <c r="H16" s="19">
-        <f>'Account for imports+small hydro'!H34</f>
-        <v>25467000</v>
-      </c>
-      <c r="I16" s="19">
-        <f>'Account for imports+small hydro'!I34</f>
-        <v>25467000</v>
-      </c>
-      <c r="J16" s="19">
-        <f>'Account for imports+small hydro'!J34</f>
-        <v>25467000</v>
-      </c>
-      <c r="K16" s="19">
-        <f>'Account for imports+small hydro'!K34</f>
-        <v>25467000</v>
-      </c>
-      <c r="L16" s="19">
-        <f>'Account for imports+small hydro'!L34</f>
-        <v>25467000</v>
-      </c>
-      <c r="M16" s="19">
-        <f>'Account for imports+small hydro'!M34</f>
-        <v>25467000</v>
-      </c>
-      <c r="N16" s="19">
-        <f>'Account for imports+small hydro'!N34</f>
-        <v>25467000</v>
-      </c>
-      <c r="O16" s="19">
-        <f>'Account for imports+small hydro'!O34</f>
-        <v>25467000</v>
-      </c>
-      <c r="P16" s="19">
-        <f>'Account for imports+small hydro'!P34</f>
-        <v>25467000</v>
-      </c>
-      <c r="Q16" s="19">
-        <f>'Account for imports+small hydro'!Q34</f>
-        <v>25467000</v>
-      </c>
-      <c r="R16" s="19">
-        <f>'Account for imports+small hydro'!R34</f>
-        <v>25467000</v>
-      </c>
-      <c r="S16" s="19">
-        <f>'Account for imports+small hydro'!S34</f>
-        <v>25467000</v>
-      </c>
-      <c r="T16" s="19">
-        <f>'Account for imports+small hydro'!T34</f>
-        <v>25467000</v>
-      </c>
-      <c r="U16" s="19">
-        <f>'Account for imports+small hydro'!U34</f>
-        <v>25467000</v>
-      </c>
-      <c r="V16" s="19">
-        <f>'Account for imports+small hydro'!V34</f>
-        <v>25467000</v>
-      </c>
-      <c r="W16" s="19">
-        <f>'Account for imports+small hydro'!W34</f>
-        <v>25467000</v>
-      </c>
-      <c r="X16" s="19">
-        <f>'Account for imports+small hydro'!X34</f>
-        <v>25467000</v>
-      </c>
-      <c r="Y16" s="19">
-        <f>'Account for imports+small hydro'!Y34</f>
-        <v>25467000</v>
-      </c>
-      <c r="Z16" s="19">
-        <f>'Account for imports+small hydro'!Z34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AA16" s="19">
-        <f>'Account for imports+small hydro'!AA34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AB16" s="19">
-        <f>'Account for imports+small hydro'!AB34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AC16" s="19">
-        <f>'Account for imports+small hydro'!AC34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AD16" s="19">
-        <f>'Account for imports+small hydro'!AD34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AE16" s="19">
-        <f>'Account for imports+small hydro'!AE34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AF16" s="19">
-        <f>'Account for imports+small hydro'!AF34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AG16" s="19">
-        <f>'Account for imports+small hydro'!AG34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AH16" s="19">
-        <f>'Account for imports+small hydro'!AH34</f>
-        <v>25467000</v>
-      </c>
-      <c r="AI16" s="19">
-        <f>'Account for imports+small hydro'!AI34</f>
-        <v>25467000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-    </row>
-    <row r="19" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="46">
+    <row r="21" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+    </row>
+    <row r="22" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A22" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+    </row>
+    <row r="23" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="S20" s="46">
+      <c r="S23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="U20" s="46">
+      <c r="U23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="V20" s="46">
+      <c r="V23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="W20" s="46">
+      <c r="W23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="X20" s="46">
+      <c r="X23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="Y20" s="46">
+      <c r="Y23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="Z20" s="46">
+      <c r="Z23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AA20" s="46">
+      <c r="AA23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AB20" s="46">
+      <c r="AB23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AC20" s="46">
+      <c r="AC23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AD20" s="46">
+      <c r="AD23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AE20" s="46">
+      <c r="AE23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AF20" s="46">
+      <c r="AF23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AG20" s="46">
+      <c r="AG23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AH20" s="46">
+      <c r="AH23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
-      <c r="AI20" s="46">
+      <c r="AI23" s="45">
         <f>'EIA-CHP Table 10'!$B$36</f>
         <v>0.95262264872417801</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+    <row r="24" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="47">
+        <f t="shared" ref="B24:AI24" si="7">B23*B19</f>
+        <v>270014735.83855748</v>
+      </c>
+      <c r="C24" s="47">
+        <f t="shared" si="7"/>
+        <v>269381289.40828836</v>
+      </c>
+      <c r="D24" s="47">
+        <f t="shared" si="7"/>
+        <v>268909969.82660556</v>
+      </c>
+      <c r="E24" s="47">
+        <f t="shared" si="7"/>
+        <v>268640644.35135829</v>
+      </c>
+      <c r="F24" s="47">
+        <f t="shared" si="7"/>
+        <v>268327021.92294532</v>
+      </c>
+      <c r="G24" s="47">
+        <f t="shared" si="7"/>
+        <v>267868105.48814893</v>
+      </c>
+      <c r="H24" s="47">
+        <f t="shared" si="7"/>
+        <v>267373751.49081999</v>
+      </c>
+      <c r="I24" s="47">
+        <f t="shared" si="7"/>
+        <v>266765997.29338694</v>
+      </c>
+      <c r="J24" s="47">
+        <f t="shared" si="7"/>
+        <v>266477181.15874675</v>
+      </c>
+      <c r="K24" s="47">
+        <f t="shared" si="7"/>
+        <v>265728562.65024686</v>
+      </c>
+      <c r="L24" s="47">
+        <f t="shared" si="7"/>
+        <v>265154474.13721973</v>
+      </c>
+      <c r="M24" s="47">
+        <f t="shared" si="7"/>
+        <v>264127670.76283938</v>
+      </c>
+      <c r="N24" s="47">
+        <f t="shared" si="7"/>
+        <v>263378166.31527618</v>
+      </c>
+      <c r="O24" s="47">
+        <f t="shared" si="7"/>
+        <v>263486250.88100043</v>
+      </c>
+      <c r="P24" s="47">
+        <f t="shared" si="7"/>
+        <v>263238187.94327265</v>
+      </c>
+      <c r="Q24" s="47">
+        <f t="shared" si="7"/>
+        <v>263459672.70910102</v>
+      </c>
+      <c r="R24" s="47">
+        <f t="shared" si="7"/>
+        <v>263501311.84507674</v>
+      </c>
+      <c r="S24" s="47">
+        <f t="shared" si="7"/>
+        <v>264003639.2939755</v>
+      </c>
+      <c r="T24" s="47">
+        <f t="shared" si="7"/>
+        <v>264412943.14122632</v>
+      </c>
+      <c r="U24" s="47">
+        <f t="shared" si="7"/>
+        <v>265384818.29368123</v>
+      </c>
+      <c r="V24" s="47">
+        <f t="shared" si="7"/>
+        <v>266419595.11963138</v>
+      </c>
+      <c r="W24" s="47">
+        <f t="shared" si="7"/>
+        <v>268007197.92108914</v>
+      </c>
+      <c r="X24" s="47">
+        <f t="shared" si="7"/>
+        <v>269694025.89763802</v>
+      </c>
+      <c r="Y24" s="47">
+        <f t="shared" si="7"/>
+        <v>271927478.27625132</v>
+      </c>
+      <c r="Z24" s="47">
+        <f t="shared" si="7"/>
+        <v>274270787.09871548</v>
+      </c>
+      <c r="AA24" s="47">
+        <f t="shared" si="7"/>
+        <v>276894938.60425001</v>
+      </c>
+      <c r="AB24" s="47">
+        <f t="shared" si="7"/>
+        <v>280054197.30402589</v>
+      </c>
+      <c r="AC24" s="47">
+        <f t="shared" si="7"/>
+        <v>283194851.28347224</v>
+      </c>
+      <c r="AD24" s="47">
+        <f t="shared" si="7"/>
+        <v>286735063.78047293</v>
+      </c>
+      <c r="AE24" s="47">
+        <f t="shared" si="7"/>
+        <v>290038730.54756892</v>
+      </c>
+      <c r="AF24" s="47">
+        <f t="shared" si="7"/>
+        <v>293602863.39927906</v>
+      </c>
+      <c r="AG24" s="47">
+        <f t="shared" si="7"/>
+        <v>296778954.94125789</v>
+      </c>
+      <c r="AH24" s="47">
+        <f t="shared" si="7"/>
+        <v>300116287.3927598</v>
+      </c>
+      <c r="AI24" s="47">
+        <f t="shared" si="7"/>
+        <v>302979642.44538897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+    </row>
+    <row r="26" spans="1:36" s="43" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" s="51" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:36" s="51" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="49">
-        <f>B20*B15</f>
-        <v>270014735.83855748</v>
-      </c>
-      <c r="C21" s="49">
-        <f t="shared" ref="C21:AI21" si="5">C20*C15</f>
-        <v>269381289.40828836</v>
-      </c>
-      <c r="D21" s="49">
-        <f t="shared" si="5"/>
-        <v>268909969.82660556</v>
-      </c>
-      <c r="E21" s="49">
-        <f t="shared" si="5"/>
-        <v>268640644.35135829</v>
-      </c>
-      <c r="F21" s="49">
-        <f t="shared" si="5"/>
-        <v>268327021.92294532</v>
-      </c>
-      <c r="G21" s="49">
-        <f t="shared" si="5"/>
-        <v>267868105.48814893</v>
-      </c>
-      <c r="H21" s="49">
-        <f t="shared" si="5"/>
-        <v>267373751.49081999</v>
-      </c>
-      <c r="I21" s="49">
-        <f t="shared" si="5"/>
-        <v>266765997.29338694</v>
-      </c>
-      <c r="J21" s="49">
-        <f t="shared" si="5"/>
-        <v>266477181.15874675</v>
-      </c>
-      <c r="K21" s="49">
-        <f t="shared" si="5"/>
-        <v>265728562.65024686</v>
-      </c>
-      <c r="L21" s="49">
-        <f t="shared" si="5"/>
-        <v>265154474.13721973</v>
-      </c>
-      <c r="M21" s="49">
-        <f t="shared" si="5"/>
-        <v>264127670.76283938</v>
-      </c>
-      <c r="N21" s="49">
-        <f t="shared" si="5"/>
-        <v>263378166.31527618</v>
-      </c>
-      <c r="O21" s="49">
-        <f t="shared" si="5"/>
-        <v>263486250.88100043</v>
-      </c>
-      <c r="P21" s="49">
-        <f t="shared" si="5"/>
-        <v>263238187.94327265</v>
-      </c>
-      <c r="Q21" s="49">
-        <f t="shared" si="5"/>
-        <v>263459672.70910102</v>
-      </c>
-      <c r="R21" s="49">
-        <f t="shared" si="5"/>
-        <v>263501311.84507674</v>
-      </c>
-      <c r="S21" s="49">
-        <f t="shared" si="5"/>
-        <v>264003639.2939755</v>
-      </c>
-      <c r="T21" s="49">
-        <f t="shared" si="5"/>
-        <v>264412943.14122632</v>
-      </c>
-      <c r="U21" s="49">
-        <f t="shared" si="5"/>
-        <v>265384818.29368123</v>
-      </c>
-      <c r="V21" s="49">
-        <f t="shared" si="5"/>
-        <v>266419595.11963138</v>
-      </c>
-      <c r="W21" s="49">
-        <f t="shared" si="5"/>
-        <v>268007197.92108914</v>
-      </c>
-      <c r="X21" s="49">
-        <f t="shared" si="5"/>
-        <v>269694025.89763802</v>
-      </c>
-      <c r="Y21" s="49">
-        <f t="shared" si="5"/>
-        <v>271927478.27625132</v>
-      </c>
-      <c r="Z21" s="49">
-        <f t="shared" si="5"/>
-        <v>274270787.09871548</v>
-      </c>
-      <c r="AA21" s="49">
-        <f t="shared" si="5"/>
-        <v>276894938.60425001</v>
-      </c>
-      <c r="AB21" s="49">
-        <f t="shared" si="5"/>
-        <v>280054197.30402589</v>
-      </c>
-      <c r="AC21" s="49">
-        <f t="shared" si="5"/>
-        <v>283194851.28347224</v>
-      </c>
-      <c r="AD21" s="49">
-        <f t="shared" si="5"/>
-        <v>286735063.78047293</v>
-      </c>
-      <c r="AE21" s="49">
-        <f t="shared" si="5"/>
-        <v>290038730.54756892</v>
-      </c>
-      <c r="AF21" s="49">
-        <f t="shared" si="5"/>
-        <v>293602863.39927906</v>
-      </c>
-      <c r="AG21" s="49">
-        <f t="shared" si="5"/>
-        <v>296778954.94125789</v>
-      </c>
-      <c r="AH21" s="49">
-        <f t="shared" si="5"/>
-        <v>300116287.3927598</v>
-      </c>
-      <c r="AI21" s="49">
-        <f t="shared" si="5"/>
-        <v>302979642.44538897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-    </row>
-    <row r="24" spans="1:35" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="19">
-        <f>B6*B21-B16</f>
-        <v>47436978.676410526</v>
-      </c>
-      <c r="C25" s="19">
-        <f>C6*C21-C16</f>
-        <v>52653573.928403616</v>
-      </c>
-      <c r="D25" s="19">
-        <f>D6*D21-D16</f>
-        <v>59239640.495380744</v>
-      </c>
-      <c r="E25" s="19">
-        <f>E6*E21-E16</f>
-        <v>65870819.079461828</v>
-      </c>
-      <c r="F25" s="19">
-        <f>F6*F21-F16</f>
-        <v>72472363.001875058</v>
-      </c>
-      <c r="G25" s="19">
-        <f>G6*G21-G16</f>
-        <v>79001561.140378103</v>
-      </c>
-      <c r="H25" s="19">
-        <f>H6*H21-H16</f>
-        <v>85493106.868690327</v>
-      </c>
-      <c r="I25" s="19">
-        <f>I6*I21-I16</f>
-        <v>91910038.809090286</v>
-      </c>
-      <c r="J25" s="19">
-        <f>J6*J21-J16</f>
-        <v>99777275.144610971</v>
-      </c>
-      <c r="K25" s="19">
-        <f>K6*K21-K16</f>
-        <v>107397281.32512343</v>
-      </c>
-      <c r="L25" s="19">
-        <f>L6*L21-L16</f>
-        <v>112413326.55135426</v>
-      </c>
-      <c r="M25" s="19">
-        <f>M6*M21-M16</f>
-        <v>118922793.3503522</v>
-      </c>
-      <c r="N25" s="19">
-        <f>N6*N21-N16</f>
-        <v>125536482.02075833</v>
-      </c>
-      <c r="O25" s="19">
-        <f>O6*O21-O16</f>
-        <v>132624750.52860022</v>
-      </c>
-      <c r="P25" s="19">
-        <f>P6*P21-P16</f>
-        <v>132475912.76596355</v>
-      </c>
-      <c r="Q25" s="19">
-        <f>Q6*Q21-Q16</f>
-        <v>132608803.62546057</v>
-      </c>
-      <c r="R25" s="19">
-        <f>R6*R21-R16</f>
-        <v>132633787.10704601</v>
-      </c>
-      <c r="S25" s="19">
-        <f>S6*S21-S16</f>
-        <v>132935183.57638526</v>
-      </c>
-      <c r="T25" s="19">
-        <f>T6*T21-T16</f>
-        <v>133180765.88473576</v>
-      </c>
-      <c r="U25" s="19">
-        <f>U6*U21-U16</f>
-        <v>133763890.97620872</v>
-      </c>
-      <c r="V25" s="19">
-        <f>V6*V21-V16</f>
-        <v>134384757.0717788</v>
-      </c>
-      <c r="W25" s="19">
-        <f>W6*W21-W16</f>
-        <v>135337318.75265345</v>
-      </c>
-      <c r="X25" s="19">
-        <f>X6*X21-X16</f>
-        <v>136349415.53858277</v>
-      </c>
-      <c r="Y25" s="19">
-        <f>Y6*Y21-Y16</f>
-        <v>137689486.96575075</v>
-      </c>
-      <c r="Z25" s="19">
-        <f>Z6*Z21-Z16</f>
-        <v>139095472.25922924</v>
-      </c>
-      <c r="AA25" s="19">
-        <f>AA6*AA21-AA16</f>
-        <v>140669963.16254997</v>
-      </c>
-      <c r="AB25" s="19">
-        <f>AB6*AB21-AB16</f>
-        <v>142565518.3824155</v>
-      </c>
-      <c r="AC25" s="19">
-        <f>AC6*AC21-AC16</f>
-        <v>144449910.77008331</v>
-      </c>
-      <c r="AD25" s="19">
-        <f>AD6*AD21-AD16</f>
-        <v>146574038.26828372</v>
-      </c>
-      <c r="AE25" s="19">
-        <f>AE6*AE21-AE16</f>
-        <v>148556238.32854131</v>
-      </c>
-      <c r="AF25" s="19">
-        <f>AF6*AF21-AF16</f>
-        <v>150694718.03956738</v>
-      </c>
-      <c r="AG25" s="19">
-        <f>AG6*AG21-AG16</f>
-        <v>152600372.9647547</v>
-      </c>
-      <c r="AH25" s="19">
-        <f>AH6*AH21-AH16</f>
-        <v>154602772.43565583</v>
-      </c>
-      <c r="AI25" s="19">
-        <f>AI6*AI21-AI16</f>
-        <v>156320785.46723333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="57">
-        <f>B25/B14</f>
-        <v>0.1556443663138761</v>
-      </c>
-      <c r="C26" s="57">
-        <f>C25/C14</f>
-        <v>0.17316665930548478</v>
-      </c>
-      <c r="D26" s="57">
-        <f>D25/D14</f>
-        <v>0.19516833699154532</v>
-      </c>
-      <c r="E26" s="57">
-        <f>E25/E14</f>
-        <v>0.21723269721845953</v>
-      </c>
-      <c r="F26" s="57">
-        <f>F25/F14</f>
-        <v>0.23928300971653155</v>
-      </c>
-      <c r="G26" s="57">
-        <f>G25/G14</f>
-        <v>0.26128743080279176</v>
-      </c>
-      <c r="H26" s="57">
-        <f>H25/H14</f>
-        <v>0.28328017464948402</v>
-      </c>
-      <c r="I26" s="57">
-        <f>I25/I14</f>
-        <v>0.30523640388126067</v>
-      </c>
-      <c r="J26" s="57">
-        <f>J25/J14</f>
-        <v>0.33172290887049211</v>
-      </c>
-      <c r="K26" s="57">
-        <f>K25/K14</f>
-        <v>0.35806255026046352</v>
-      </c>
-      <c r="L26" s="57">
-        <f>L25/L14</f>
-        <v>0.37559749860121305</v>
-      </c>
-      <c r="M26" s="57">
-        <f>M25/M14</f>
-        <v>0.39889174747630152</v>
-      </c>
-      <c r="N26" s="57">
-        <f>N25/N14</f>
-        <v>0.42227370191349883</v>
-      </c>
-      <c r="O26" s="57">
-        <f>O25/O14</f>
-        <v>0.44593388407412088</v>
-      </c>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="51">
-        <f>B25/B14</f>
-        <v>0.1556443663138761</v>
-      </c>
-      <c r="C27" s="51">
-        <f t="shared" ref="C27:O27" si="6">C25/C14</f>
-        <v>0.17316665930548478</v>
-      </c>
-      <c r="D27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.19516833699154532</v>
-      </c>
-      <c r="E27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.21723269721845953</v>
-      </c>
-      <c r="F27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.23928300971653155</v>
-      </c>
-      <c r="G27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.26128743080279176</v>
-      </c>
-      <c r="H27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.28328017464948402</v>
-      </c>
-      <c r="I27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.30523640388126067</v>
-      </c>
-      <c r="J27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.33172290887049211</v>
-      </c>
-      <c r="K27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.35806255026046352</v>
-      </c>
-      <c r="L27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.37559749860121305</v>
-      </c>
-      <c r="M27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.39889174747630152</v>
-      </c>
-      <c r="N27" s="51">
-        <f t="shared" si="6"/>
-        <v>0.42227370191349883</v>
-      </c>
-      <c r="O27" s="51">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51" t="s">
+      <c r="B28" s="19">
+        <f>'Account for imports+small hydro'!B34</f>
+        <v>29274400</v>
+      </c>
+      <c r="C28" s="19">
+        <f>'Account for imports+small hydro'!C34</f>
+        <v>29274400</v>
+      </c>
+      <c r="D28" s="19">
+        <f>'Account for imports+small hydro'!D34</f>
+        <v>29274400</v>
+      </c>
+      <c r="E28" s="19">
+        <f>'Account for imports+small hydro'!E34</f>
+        <v>29274400</v>
+      </c>
+      <c r="F28" s="19">
+        <f>'Account for imports+small hydro'!F34</f>
+        <v>29274400</v>
+      </c>
+      <c r="G28" s="19">
+        <f>'Account for imports+small hydro'!G34</f>
+        <v>29274400</v>
+      </c>
+      <c r="H28" s="19">
+        <f>'Account for imports+small hydro'!H34</f>
+        <v>29274400</v>
+      </c>
+      <c r="I28" s="19">
+        <f>'Account for imports+small hydro'!I34</f>
+        <v>29274400</v>
+      </c>
+      <c r="J28" s="19">
+        <f>'Account for imports+small hydro'!J34</f>
+        <v>29274400</v>
+      </c>
+      <c r="K28" s="19">
+        <f>'Account for imports+small hydro'!K34</f>
+        <v>29274400</v>
+      </c>
+      <c r="L28" s="19">
+        <f>'Account for imports+small hydro'!L34</f>
+        <v>29274400</v>
+      </c>
+      <c r="M28" s="19">
+        <f>'Account for imports+small hydro'!M34</f>
+        <v>29274400</v>
+      </c>
+      <c r="N28" s="19">
+        <f>'Account for imports+small hydro'!N34</f>
+        <v>29274400</v>
+      </c>
+      <c r="O28" s="19">
+        <f>'Account for imports+small hydro'!O34</f>
+        <v>29274400</v>
+      </c>
+      <c r="P28" s="19">
+        <f>'Account for imports+small hydro'!P34</f>
+        <v>29274400</v>
+      </c>
+      <c r="Q28" s="19">
+        <f>'Account for imports+small hydro'!Q34</f>
+        <v>29274400</v>
+      </c>
+      <c r="R28" s="19">
+        <f>'Account for imports+small hydro'!R34</f>
+        <v>29274400</v>
+      </c>
+      <c r="S28" s="19">
+        <f>'Account for imports+small hydro'!S34</f>
+        <v>29274400</v>
+      </c>
+      <c r="T28" s="19">
+        <f>'Account for imports+small hydro'!T34</f>
+        <v>29274400</v>
+      </c>
+      <c r="U28" s="19">
+        <f>'Account for imports+small hydro'!U34</f>
+        <v>29274400</v>
+      </c>
+      <c r="V28" s="19">
+        <f>'Account for imports+small hydro'!V34</f>
+        <v>29274400</v>
+      </c>
+      <c r="W28" s="19">
+        <f>'Account for imports+small hydro'!W34</f>
+        <v>29274400</v>
+      </c>
+      <c r="X28" s="19">
+        <f>'Account for imports+small hydro'!X34</f>
+        <v>29274400</v>
+      </c>
+      <c r="Y28" s="19">
+        <f>'Account for imports+small hydro'!Y34</f>
+        <v>29274400</v>
+      </c>
+      <c r="Z28" s="19">
+        <f>'Account for imports+small hydro'!Z34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AA28" s="19">
+        <f>'Account for imports+small hydro'!AA34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AB28" s="19">
+        <f>'Account for imports+small hydro'!AB34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AC28" s="19">
+        <f>'Account for imports+small hydro'!AC34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AD28" s="19">
+        <f>'Account for imports+small hydro'!AD34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AE28" s="19">
+        <f>'Account for imports+small hydro'!AE34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AF28" s="19">
+        <f>'Account for imports+small hydro'!AF34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AG28" s="19">
+        <f>'Account for imports+small hydro'!AG34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AH28" s="19">
+        <f>'Account for imports+small hydro'!AH34</f>
+        <v>29274400</v>
+      </c>
+      <c r="AI28" s="19">
+        <f>'Account for imports+small hydro'!AI34</f>
+        <v>29274400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" s="51" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="19">
+        <f t="shared" ref="B30:O30" si="8">B10-B28</f>
+        <v>43629578.676410541</v>
+      </c>
+      <c r="C30" s="19">
+        <f t="shared" si="8"/>
+        <v>48846173.928403616</v>
+      </c>
+      <c r="D30" s="19">
+        <f t="shared" si="8"/>
+        <v>55432240.495380759</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="8"/>
+        <v>62063419.079461828</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="8"/>
+        <v>68664963.001875043</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="8"/>
+        <v>75194161.140378088</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="8"/>
+        <v>81685706.868690327</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="8"/>
+        <v>88102638.809090286</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="8"/>
+        <v>95969875.144610971</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" si="8"/>
+        <v>103589881.32512343</v>
+      </c>
+      <c r="L30" s="19">
+        <f t="shared" si="8"/>
+        <v>108605926.55135426</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" si="8"/>
+        <v>115115393.3503522</v>
+      </c>
+      <c r="N30" s="19">
+        <f t="shared" si="8"/>
+        <v>121729082.02075833</v>
+      </c>
+      <c r="O30" s="19">
+        <f t="shared" si="8"/>
+        <v>128817350.52860022</v>
+      </c>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+    </row>
+    <row r="31" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-    </row>
-    <row r="31" spans="1:35" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="44" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="45">
+        <v>5.7196877175199803E-3</v>
+      </c>
+      <c r="F31" s="45">
+        <f>($O$31-$E$31)/10+E31</f>
+        <v>1.0242676826945832E-2</v>
+      </c>
+      <c r="G31" s="45">
+        <f t="shared" ref="G31:N31" si="9">($O$31-$E$31)/10+F31</f>
+        <v>1.4765665936371684E-2</v>
+      </c>
+      <c r="H31" s="45">
+        <f t="shared" si="9"/>
+        <v>1.9288655045797534E-2</v>
+      </c>
+      <c r="I31" s="45">
+        <f t="shared" si="9"/>
+        <v>2.3811644155223386E-2</v>
+      </c>
+      <c r="J31" s="45">
+        <f t="shared" si="9"/>
+        <v>2.8334633264649238E-2</v>
+      </c>
+      <c r="K31" s="45">
+        <f t="shared" si="9"/>
+        <v>3.2857622374075093E-2</v>
+      </c>
+      <c r="L31" s="45">
+        <f t="shared" si="9"/>
+        <v>3.7380611483500942E-2</v>
+      </c>
+      <c r="M31" s="45">
+        <f t="shared" si="9"/>
+        <v>4.190360059292679E-2</v>
+      </c>
+      <c r="N31" s="45">
+        <f t="shared" si="9"/>
+        <v>4.6426589702352639E-2</v>
+      </c>
+      <c r="O31" s="45">
+        <v>5.0949578811778501E-2</v>
+      </c>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+    </row>
+    <row r="32" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="19">
+        <f>B30</f>
+        <v>43629578.676410541</v>
+      </c>
+      <c r="C32" s="19">
+        <f t="shared" ref="C32:D32" si="10">C30</f>
+        <v>48846173.928403616</v>
+      </c>
+      <c r="D32" s="19">
+        <f t="shared" si="10"/>
+        <v>55432240.495380759</v>
+      </c>
+      <c r="E32" s="47">
+        <f>E30*(1+E31)</f>
+        <v>62418402.455277927</v>
+      </c>
+      <c r="F32" s="47">
+        <f t="shared" ref="F32:O32" si="11">F30*(1+F31)</f>
+        <v>69368276.027237445</v>
+      </c>
+      <c r="G32" s="47">
+        <f t="shared" si="11"/>
+        <v>76304453.004142612</v>
+      </c>
+      <c r="H32" s="47">
+        <f t="shared" si="11"/>
+        <v>83261314.290652633</v>
+      </c>
+      <c r="I32" s="47">
+        <f t="shared" si="11"/>
+        <v>90200507.493548527</v>
+      </c>
+      <c r="J32" s="47">
+        <f t="shared" si="11"/>
+        <v>98689146.361287698</v>
+      </c>
+      <c r="K32" s="47">
+        <f t="shared" si="11"/>
+        <v>106993598.52747959</v>
+      </c>
+      <c r="L32" s="47">
+        <f t="shared" si="11"/>
+        <v>112665682.49657607</v>
+      </c>
+      <c r="M32" s="47">
+        <f t="shared" si="11"/>
+        <v>119939142.81540301</v>
+      </c>
+      <c r="N32" s="47">
+        <f t="shared" si="11"/>
+        <v>127380548.1665801</v>
+      </c>
+      <c r="O32" s="47">
+        <f t="shared" si="11"/>
+        <v>135380540.28168163</v>
+      </c>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+    </row>
+    <row r="33" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+    </row>
+    <row r="34" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="45">
+        <f t="shared" ref="B34:O34" si="12">B30/B19</f>
+        <v>0.15392687614757614</v>
+      </c>
+      <c r="C34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.17273646469629689</v>
+      </c>
+      <c r="D34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.19637058380347452</v>
+      </c>
+      <c r="E34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.22008218010014863</v>
+      </c>
+      <c r="F34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.24377641305234626</v>
+      </c>
+      <c r="G34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.26741392307084044</v>
+      </c>
+      <c r="H34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.29103699972893665</v>
+      </c>
+      <c r="I34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.31461494340900287</v>
+      </c>
+      <c r="J34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.34308032027524743</v>
+      </c>
+      <c r="K34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.37136417005667594</v>
+      </c>
+      <c r="L34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.39018940093370985</v>
+      </c>
+      <c r="M34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.41518380336910399</v>
+      </c>
+      <c r="N34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.44028661207461534</v>
+      </c>
+      <c r="O34" s="56">
+        <f t="shared" si="12"/>
+        <v>0.46573331721057465</v>
+      </c>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+    </row>
+    <row r="35" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+    </row>
+    <row r="36" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50">
+        <v>0.46750000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+    </row>
+    <row r="38" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+    </row>
+    <row r="39" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+    </row>
+    <row r="40" spans="1:36" s="43" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A40" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B40" s="48">
         <v>2017</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C40" s="48">
         <v>2018</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D40" s="48">
         <v>2019</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E40" s="48">
         <v>2020</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F40" s="48">
         <v>2021</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G40" s="48">
         <v>2022</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H40" s="48">
         <v>2023</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I40" s="48">
         <v>2024</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J40" s="48">
         <v>2025</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K40" s="48">
         <v>2026</v>
       </c>
-      <c r="L31" s="50">
+      <c r="L40" s="48">
         <v>2027</v>
       </c>
-      <c r="M31" s="50">
+      <c r="M40" s="48">
         <v>2028</v>
       </c>
-      <c r="N31" s="50">
+      <c r="N40" s="48">
         <v>2029</v>
       </c>
-      <c r="O31" s="50">
+      <c r="O40" s="48">
         <v>2030</v>
       </c>
-      <c r="P31" s="50">
+      <c r="P40" s="48">
         <v>2031</v>
       </c>
-      <c r="Q31" s="50">
+      <c r="Q40" s="48">
         <v>2032</v>
       </c>
-      <c r="R31" s="50">
+      <c r="R40" s="48">
         <v>2033</v>
       </c>
-      <c r="S31" s="50">
+      <c r="S40" s="48">
         <v>2034</v>
       </c>
-      <c r="T31" s="50">
+      <c r="T40" s="48">
         <v>2035</v>
       </c>
-      <c r="U31" s="50">
+      <c r="U40" s="48">
         <v>2036</v>
       </c>
-      <c r="V31" s="50">
+      <c r="V40" s="48">
         <v>2037</v>
       </c>
-      <c r="W31" s="50">
+      <c r="W40" s="48">
         <v>2038</v>
       </c>
-      <c r="X31" s="50">
+      <c r="X40" s="48">
         <v>2039</v>
       </c>
-      <c r="Y31" s="50">
+      <c r="Y40" s="48">
         <v>2040</v>
       </c>
-      <c r="Z31" s="50">
+      <c r="Z40" s="48">
         <v>2041</v>
       </c>
-      <c r="AA31" s="50">
+      <c r="AA40" s="48">
         <v>2042</v>
       </c>
-      <c r="AB31" s="50">
+      <c r="AB40" s="48">
         <v>2043</v>
       </c>
-      <c r="AC31" s="50">
+      <c r="AC40" s="48">
         <v>2044</v>
       </c>
-      <c r="AD31" s="50">
+      <c r="AD40" s="48">
         <v>2045</v>
       </c>
-      <c r="AE31" s="50">
+      <c r="AE40" s="48">
         <v>2046</v>
       </c>
-      <c r="AF31" s="50">
+      <c r="AF40" s="48">
         <v>2047</v>
       </c>
-      <c r="AG31" s="50">
+      <c r="AG40" s="48">
         <v>2048</v>
       </c>
-      <c r="AH31" s="50">
+      <c r="AH40" s="48">
         <v>2049</v>
       </c>
-      <c r="AI31" s="50">
+      <c r="AI40" s="48">
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O41" s="8">
         <v>0.6</v>
       </c>
-      <c r="P32" s="8">
-        <f>O32+($AD$32-$O$32)/15</f>
+      <c r="P41" s="8">
+        <f>O41+($AD$41-$O$41)/15</f>
         <v>0.62666666666666659</v>
       </c>
-      <c r="Q32" s="8">
-        <f t="shared" ref="Q32:AC32" si="7">P32+($AD$32-$O$32)/15</f>
+      <c r="Q41" s="8">
+        <f t="shared" ref="Q41:AC41" si="13">P41+($AD$41-$O$41)/15</f>
         <v>0.65333333333333321</v>
       </c>
-      <c r="R32" s="8">
-        <f t="shared" si="7"/>
+      <c r="R41" s="8">
+        <f t="shared" si="13"/>
         <v>0.67999999999999983</v>
       </c>
-      <c r="S32" s="8">
-        <f t="shared" si="7"/>
+      <c r="S41" s="8">
+        <f t="shared" si="13"/>
         <v>0.70666666666666644</v>
       </c>
-      <c r="T32" s="8">
-        <f t="shared" si="7"/>
+      <c r="T41" s="8">
+        <f t="shared" si="13"/>
         <v>0.73333333333333306</v>
       </c>
-      <c r="U32" s="8">
-        <f t="shared" si="7"/>
+      <c r="U41" s="8">
+        <f t="shared" si="13"/>
         <v>0.75999999999999968</v>
       </c>
-      <c r="V32" s="8">
-        <f t="shared" si="7"/>
+      <c r="V41" s="8">
+        <f t="shared" si="13"/>
         <v>0.78666666666666629</v>
       </c>
-      <c r="W32" s="8">
-        <f t="shared" si="7"/>
+      <c r="W41" s="8">
+        <f t="shared" si="13"/>
         <v>0.81333333333333291</v>
       </c>
-      <c r="X32" s="8">
-        <f t="shared" si="7"/>
+      <c r="X41" s="8">
+        <f t="shared" si="13"/>
         <v>0.83999999999999952</v>
       </c>
-      <c r="Y32" s="8">
-        <f t="shared" si="7"/>
+      <c r="Y41" s="8">
+        <f t="shared" si="13"/>
         <v>0.86666666666666614</v>
       </c>
-      <c r="Z32" s="8">
-        <f t="shared" si="7"/>
+      <c r="Z41" s="8">
+        <f t="shared" si="13"/>
         <v>0.89333333333333276</v>
       </c>
-      <c r="AA32" s="8">
-        <f t="shared" si="7"/>
+      <c r="AA41" s="8">
+        <f t="shared" si="13"/>
         <v>0.91999999999999937</v>
       </c>
-      <c r="AB32" s="8">
-        <f t="shared" si="7"/>
+      <c r="AB41" s="8">
+        <f t="shared" si="13"/>
         <v>0.94666666666666599</v>
       </c>
-      <c r="AC32" s="8">
-        <f t="shared" si="7"/>
+      <c r="AC41" s="8">
+        <f t="shared" si="13"/>
         <v>0.97333333333333261</v>
       </c>
-      <c r="AD32" s="8">
+      <c r="AD41" s="8">
         <v>1</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AE41" s="8">
         <v>1</v>
       </c>
-      <c r="AF32" s="8">
+      <c r="AF41" s="8">
         <v>1</v>
       </c>
-      <c r="AG32" s="8">
+      <c r="AG41" s="8">
         <v>1</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AH41" s="8">
         <v>1</v>
       </c>
-      <c r="AI32" s="8">
+      <c r="AI41" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="8">
-        <f>P32-O32</f>
+      <c r="P42" s="8">
+        <f>P41-O41</f>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="Q33" s="8">
-        <f t="shared" ref="Q33:AD33" si="8">Q32-P32</f>
+      <c r="Q42" s="8">
+        <f t="shared" ref="Q42:AD42" si="14">Q41-P41</f>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="R33" s="8">
-        <f t="shared" si="8"/>
+      <c r="R42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="S33" s="8">
-        <f t="shared" si="8"/>
+      <c r="S42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="T33" s="8">
-        <f t="shared" si="8"/>
+      <c r="T42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="U33" s="8">
-        <f t="shared" si="8"/>
+      <c r="U42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="V33" s="8">
-        <f t="shared" si="8"/>
+      <c r="V42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="W33" s="8">
-        <f t="shared" si="8"/>
+      <c r="W42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="X33" s="8">
-        <f t="shared" si="8"/>
+      <c r="X42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="Y33" s="8">
-        <f t="shared" si="8"/>
+      <c r="Y42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="Z33" s="8">
-        <f t="shared" si="8"/>
+      <c r="Z42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="AA33" s="8">
-        <f t="shared" si="8"/>
+      <c r="AA42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="AB33" s="8">
-        <f t="shared" si="8"/>
+      <c r="AB42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="AC33" s="8">
-        <f t="shared" si="8"/>
+      <c r="AC42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="AD33" s="8">
-        <f t="shared" si="8"/>
+      <c r="AD42" s="8">
+        <f t="shared" si="14"/>
         <v>2.6666666666667393E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="O34" s="52">
-        <f>O26</f>
-        <v>0.44593388407412088</v>
-      </c>
-      <c r="P34" s="52">
-        <f>O34+P33</f>
-        <v>0.4726005507407875</v>
-      </c>
-      <c r="Q34" s="52">
-        <f t="shared" ref="Q34:AD34" si="9">P34+Q33</f>
-        <v>0.49926721740745411</v>
-      </c>
-      <c r="R34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.52593388407412078</v>
-      </c>
-      <c r="S34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.5526005507407874</v>
-      </c>
-      <c r="T34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.57926721740745402</v>
-      </c>
-      <c r="U34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.60593388407412063</v>
-      </c>
-      <c r="V34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.63260055074078725</v>
-      </c>
-      <c r="W34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.65926721740745386</v>
-      </c>
-      <c r="X34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.68593388407412048</v>
-      </c>
-      <c r="Y34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.7126005507407871</v>
-      </c>
-      <c r="Z34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.73926721740745371</v>
-      </c>
-      <c r="AA34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.76593388407412033</v>
-      </c>
-      <c r="AB34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.79260055074078695</v>
-      </c>
-      <c r="AC34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.81926721740745356</v>
-      </c>
-      <c r="AD34" s="52">
-        <f t="shared" si="9"/>
-        <v>0.84593388407412096</v>
-      </c>
-      <c r="AE34" s="8">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="O43" s="50">
+        <f>O34</f>
+        <v>0.46573331721057465</v>
+      </c>
+      <c r="P43" s="50">
+        <f>O43+P42</f>
+        <v>0.49239998387724127</v>
+      </c>
+      <c r="Q43" s="50">
+        <f t="shared" ref="Q43:AD43" si="15">P43+Q42</f>
+        <v>0.51906665054390788</v>
+      </c>
+      <c r="R43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.5457333172105745</v>
+      </c>
+      <c r="S43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.57239998387724111</v>
+      </c>
+      <c r="T43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.59906665054390773</v>
+      </c>
+      <c r="U43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.62573331721057435</v>
+      </c>
+      <c r="V43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.65239998387724096</v>
+      </c>
+      <c r="W43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.67906665054390758</v>
+      </c>
+      <c r="X43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.7057333172105742</v>
+      </c>
+      <c r="Y43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.73239998387724081</v>
+      </c>
+      <c r="Z43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.75906665054390743</v>
+      </c>
+      <c r="AA43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.78573331721057404</v>
+      </c>
+      <c r="AB43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.81239998387724066</v>
+      </c>
+      <c r="AC43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.83906665054390728</v>
+      </c>
+      <c r="AD43" s="50">
+        <f t="shared" si="15"/>
+        <v>0.86573331721057467</v>
+      </c>
+      <c r="AE43" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="O35" s="53">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="J36" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="J37" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4966,16 +5504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:AI27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -5015,7 +5553,7 @@
       <c r="AI1" s="17"/>
       <c r="AJ1" s="17"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -5053,12 +5591,12 @@
       <c r="AI2" s="18"/>
       <c r="AJ2" s="18"/>
     </row>
-    <row r="5" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" s="13" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5165,7 +5703,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -5173,7 +5711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5280,12 +5818,12 @@
         <v>325611392</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" s="13" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2017</v>
       </c>
@@ -5389,1549 +5927,1549 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="18">
         <v>11773000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="18">
         <v>8822975.5357136205</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="18">
         <v>7259224.28571303</v>
       </c>
-      <c r="E13">
-        <v>7155409.8626375999</v>
-      </c>
-      <c r="F13">
-        <v>7155409.8626375999</v>
-      </c>
-      <c r="G13">
-        <v>7155409.8626375999</v>
-      </c>
-      <c r="H13">
-        <v>7155409.8626375999</v>
-      </c>
-      <c r="I13">
-        <v>3577704.9313188</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="E13" s="18">
+        <v>6049353.571427525</v>
+      </c>
+      <c r="F13" s="18">
+        <v>4839482.85714202</v>
+      </c>
+      <c r="G13" s="18">
+        <v>3629612.142856515</v>
+      </c>
+      <c r="H13" s="18">
+        <v>2419741.42857101</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1209870.714285505</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
+        <v>0</v>
+      </c>
+      <c r="X13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="C14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="D14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="E14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="F14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="G14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="H14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="I14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="J14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="K14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="L14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="M14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="N14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="O14">
-        <v>30364600.000000004</v>
-      </c>
-      <c r="P14">
-        <v>28340293.333333336</v>
-      </c>
-      <c r="Q14">
-        <v>26315986.666666668</v>
-      </c>
-      <c r="R14">
-        <v>24291680</v>
-      </c>
-      <c r="S14">
-        <v>22267373.333333332</v>
-      </c>
-      <c r="T14">
-        <v>20243066.666666664</v>
-      </c>
-      <c r="U14">
-        <v>18218759.999999996</v>
-      </c>
-      <c r="V14">
-        <v>16194453.333333328</v>
-      </c>
-      <c r="W14">
-        <v>14170146.66666666</v>
-      </c>
-      <c r="X14">
-        <v>12145839.999999993</v>
-      </c>
-      <c r="Y14">
-        <v>10121533.333333325</v>
-      </c>
-      <c r="Z14">
-        <v>8097226.6666666577</v>
-      </c>
-      <c r="AA14">
-        <v>6072919.9999999907</v>
-      </c>
-      <c r="AB14">
-        <v>4048613.3333333237</v>
-      </c>
-      <c r="AC14">
-        <v>2024306.6666666567</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="C14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="D14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="E14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="F14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="G14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="H14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="I14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="J14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="K14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="L14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="M14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="N14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="O14" s="18">
+        <v>8751000</v>
+      </c>
+      <c r="P14" s="18">
+        <v>8167600</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>7584200</v>
+      </c>
+      <c r="R14" s="18">
+        <v>7000800</v>
+      </c>
+      <c r="S14" s="18">
+        <v>6417400</v>
+      </c>
+      <c r="T14" s="18">
+        <v>5834000</v>
+      </c>
+      <c r="U14" s="18">
+        <v>5250600</v>
+      </c>
+      <c r="V14" s="18">
+        <v>4667200</v>
+      </c>
+      <c r="W14" s="18">
+        <v>4083800</v>
+      </c>
+      <c r="X14" s="18">
+        <v>3500400</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>2917000</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>2333600</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>1750200</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>1166800</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>583400</v>
+      </c>
+      <c r="AD14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
-        <v>11295700</v>
-      </c>
-      <c r="C15">
-        <v>11295700</v>
-      </c>
-      <c r="D15">
-        <v>11295700</v>
-      </c>
-      <c r="E15">
-        <v>11295700</v>
-      </c>
-      <c r="F15">
-        <v>11295700</v>
-      </c>
-      <c r="G15">
-        <v>11295700</v>
-      </c>
-      <c r="H15">
-        <v>11295700</v>
-      </c>
-      <c r="I15">
-        <v>11295700</v>
-      </c>
-      <c r="J15">
-        <v>11295700</v>
-      </c>
-      <c r="K15">
-        <v>11295700</v>
-      </c>
-      <c r="L15">
-        <v>11295700</v>
-      </c>
-      <c r="M15">
-        <v>11295700</v>
-      </c>
-      <c r="N15">
-        <v>11295700</v>
-      </c>
-      <c r="O15">
-        <v>11295700</v>
-      </c>
-      <c r="P15">
-        <v>11295700</v>
-      </c>
-      <c r="Q15">
-        <v>11295700</v>
-      </c>
-      <c r="R15">
-        <v>11295700</v>
-      </c>
-      <c r="S15">
-        <v>11295700</v>
-      </c>
-      <c r="T15">
-        <v>11295700</v>
-      </c>
-      <c r="U15">
-        <v>11295700</v>
-      </c>
-      <c r="V15">
-        <v>11295700</v>
-      </c>
-      <c r="W15">
-        <v>11295700</v>
-      </c>
-      <c r="X15">
-        <v>11295700</v>
-      </c>
-      <c r="Y15">
-        <v>11295700</v>
-      </c>
-      <c r="Z15">
-        <v>11295700</v>
-      </c>
-      <c r="AA15">
-        <v>11295700</v>
-      </c>
-      <c r="AB15">
-        <v>11295700</v>
-      </c>
-      <c r="AC15">
-        <v>11295700</v>
-      </c>
-      <c r="AD15">
-        <v>11295700</v>
-      </c>
-      <c r="AE15">
-        <v>11295700</v>
-      </c>
-      <c r="AF15">
-        <v>11295700</v>
-      </c>
-      <c r="AG15">
-        <v>11295700</v>
-      </c>
-      <c r="AH15">
-        <v>11295700</v>
-      </c>
-      <c r="AI15">
-        <v>11295700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="C15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="D15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="E15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="F15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="G15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="H15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="I15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="J15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="K15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="L15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="M15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="N15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="O15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="P15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="R15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="S15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="T15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="U15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="V15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="W15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="X15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AB15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AC15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AD15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AE15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AF15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AG15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AH15" s="18">
+        <v>8165000</v>
+      </c>
+      <c r="AI15" s="18">
+        <v>8165000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
-        <v>10222700</v>
-      </c>
-      <c r="C16">
-        <v>10222700</v>
-      </c>
-      <c r="D16">
-        <v>10222700</v>
-      </c>
-      <c r="E16">
-        <v>10222700</v>
-      </c>
-      <c r="F16">
-        <v>10222700</v>
-      </c>
-      <c r="G16">
-        <v>10222700</v>
-      </c>
-      <c r="H16">
-        <v>10222700</v>
-      </c>
-      <c r="I16">
-        <v>10222700</v>
-      </c>
-      <c r="J16">
-        <v>10222700</v>
-      </c>
-      <c r="K16">
-        <v>10222700</v>
-      </c>
-      <c r="L16">
-        <v>10222700</v>
-      </c>
-      <c r="M16">
-        <v>10222700</v>
-      </c>
-      <c r="N16">
-        <v>10222700</v>
-      </c>
-      <c r="O16">
-        <v>10222700</v>
-      </c>
-      <c r="P16">
-        <v>10222700</v>
-      </c>
-      <c r="Q16">
-        <v>10222700</v>
-      </c>
-      <c r="R16">
-        <v>10222700</v>
-      </c>
-      <c r="S16">
-        <v>10222700</v>
-      </c>
-      <c r="T16">
-        <v>10222700</v>
-      </c>
-      <c r="U16">
-        <v>10222700</v>
-      </c>
-      <c r="V16">
-        <v>10222700</v>
-      </c>
-      <c r="W16">
-        <v>10222700</v>
-      </c>
-      <c r="X16">
-        <v>10222700</v>
-      </c>
-      <c r="Y16">
-        <v>10222700</v>
-      </c>
-      <c r="Z16">
-        <v>10222700</v>
-      </c>
-      <c r="AA16">
-        <v>10222700</v>
-      </c>
-      <c r="AB16">
-        <v>10222700</v>
-      </c>
-      <c r="AC16">
-        <v>10222700</v>
-      </c>
-      <c r="AD16">
-        <v>10222700</v>
-      </c>
-      <c r="AE16">
-        <v>10222700</v>
-      </c>
-      <c r="AF16">
-        <v>10222700</v>
-      </c>
-      <c r="AG16">
-        <v>10222700</v>
-      </c>
-      <c r="AH16">
-        <v>10222700</v>
-      </c>
-      <c r="AI16">
-        <v>10222700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="C16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="D16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="E16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="F16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="G16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="H16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="I16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="J16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="K16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="L16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="M16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="N16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="O16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="P16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="R16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="S16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="T16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="U16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="V16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="W16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="X16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AB16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AC16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AD16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AE16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AF16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AG16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AH16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+      <c r="AI16" s="18">
+        <v>5798200.0000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
-        <v>14575000</v>
-      </c>
-      <c r="C17">
-        <v>14575000</v>
-      </c>
-      <c r="D17">
-        <v>14575000</v>
-      </c>
-      <c r="E17">
-        <v>14575000</v>
-      </c>
-      <c r="F17">
-        <v>14575000</v>
-      </c>
-      <c r="G17">
-        <v>14575000</v>
-      </c>
-      <c r="H17">
-        <v>14575000</v>
-      </c>
-      <c r="I17">
-        <v>14575000</v>
-      </c>
-      <c r="J17">
-        <v>14575000</v>
-      </c>
-      <c r="K17">
-        <v>14575000</v>
-      </c>
-      <c r="L17">
-        <v>14575000</v>
-      </c>
-      <c r="M17">
-        <v>14575000</v>
-      </c>
-      <c r="N17">
-        <v>14575000</v>
-      </c>
-      <c r="O17">
-        <v>14575000</v>
-      </c>
-      <c r="P17">
-        <v>14575000</v>
-      </c>
-      <c r="Q17">
-        <v>14575000</v>
-      </c>
-      <c r="R17">
-        <v>14575000</v>
-      </c>
-      <c r="S17">
-        <v>14575000</v>
-      </c>
-      <c r="T17">
-        <v>14575000</v>
-      </c>
-      <c r="U17">
-        <v>14575000</v>
-      </c>
-      <c r="V17">
-        <v>14575000</v>
-      </c>
-      <c r="W17">
-        <v>14575000</v>
-      </c>
-      <c r="X17">
-        <v>14575000</v>
-      </c>
-      <c r="Y17">
-        <v>14575000</v>
-      </c>
-      <c r="Z17">
-        <v>14575000</v>
-      </c>
-      <c r="AA17">
-        <v>14575000</v>
-      </c>
-      <c r="AB17">
-        <v>14575000</v>
-      </c>
-      <c r="AC17">
-        <v>14575000</v>
-      </c>
-      <c r="AD17">
-        <v>14575000</v>
-      </c>
-      <c r="AE17">
-        <v>14575000</v>
-      </c>
-      <c r="AF17">
-        <v>14575000</v>
-      </c>
-      <c r="AG17">
-        <v>14575000</v>
-      </c>
-      <c r="AH17">
-        <v>14575000</v>
-      </c>
-      <c r="AI17">
-        <v>14575000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="C17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="D17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="E17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="F17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="G17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="H17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="I17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="J17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="K17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="L17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="M17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="N17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="O17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="P17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="R17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="S17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="T17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="U17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="V17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="W17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="X17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="Z17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AB17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AC17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AD17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AE17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AF17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AG17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AH17" s="19">
+        <v>18633000</v>
+      </c>
+      <c r="AI17" s="19">
+        <v>18633000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
-        <v>5465000</v>
-      </c>
-      <c r="C18">
-        <v>5465000</v>
-      </c>
-      <c r="D18">
-        <v>5465000</v>
-      </c>
-      <c r="E18">
-        <v>5465000</v>
-      </c>
-      <c r="F18">
-        <v>5465000</v>
-      </c>
-      <c r="G18">
-        <v>5465000</v>
-      </c>
-      <c r="H18">
-        <v>5465000</v>
-      </c>
-      <c r="I18">
-        <v>5465000</v>
-      </c>
-      <c r="J18">
-        <v>5465000</v>
-      </c>
-      <c r="K18">
-        <v>5465000</v>
-      </c>
-      <c r="L18">
-        <v>5465000</v>
-      </c>
-      <c r="M18">
-        <v>5465000</v>
-      </c>
-      <c r="N18">
-        <v>5465000</v>
-      </c>
-      <c r="O18">
-        <v>5465000</v>
-      </c>
-      <c r="P18">
-        <v>5465000</v>
-      </c>
-      <c r="Q18">
-        <v>5465000</v>
-      </c>
-      <c r="R18">
-        <v>5465000</v>
-      </c>
-      <c r="S18">
-        <v>5465000</v>
-      </c>
-      <c r="T18">
-        <v>5465000</v>
-      </c>
-      <c r="U18">
-        <v>5465000</v>
-      </c>
-      <c r="V18">
-        <v>5465000</v>
-      </c>
-      <c r="W18">
-        <v>5465000</v>
-      </c>
-      <c r="X18">
-        <v>5465000</v>
-      </c>
-      <c r="Y18">
-        <v>5465000</v>
-      </c>
-      <c r="Z18">
-        <v>5465000</v>
-      </c>
-      <c r="AA18">
-        <v>5465000</v>
-      </c>
-      <c r="AB18">
-        <v>5465000</v>
-      </c>
-      <c r="AC18">
-        <v>5465000</v>
-      </c>
-      <c r="AD18">
-        <v>5465000</v>
-      </c>
-      <c r="AE18">
-        <v>5465000</v>
-      </c>
-      <c r="AF18">
-        <v>5465000</v>
-      </c>
-      <c r="AG18">
-        <v>5465000</v>
-      </c>
-      <c r="AH18">
-        <v>5465000</v>
-      </c>
-      <c r="AI18">
-        <v>5465000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="C18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="D18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="E18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="G18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="H18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="I18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="J18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="K18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="L18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="M18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="N18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="O18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="P18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="R18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="S18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="T18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="U18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="V18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="W18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="X18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AC18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AE18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AF18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AG18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AH18" s="18">
+        <v>5268000</v>
+      </c>
+      <c r="AI18" s="18">
+        <v>5268000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B19" s="18">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>0</v>
+      </c>
+      <c r="R19" s="18">
+        <v>0</v>
+      </c>
+      <c r="S19" s="18">
+        <v>0</v>
+      </c>
+      <c r="T19" s="18">
+        <v>0</v>
+      </c>
+      <c r="U19" s="18">
+        <v>0</v>
+      </c>
+      <c r="V19" s="18">
+        <v>0</v>
+      </c>
+      <c r="W19" s="18">
+        <v>0</v>
+      </c>
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20">
-        <v>1047000</v>
-      </c>
-      <c r="C20">
-        <v>1047000</v>
-      </c>
-      <c r="D20">
-        <v>1047000</v>
-      </c>
-      <c r="E20">
-        <v>1047000</v>
-      </c>
-      <c r="F20">
-        <v>1047000</v>
-      </c>
-      <c r="G20">
-        <v>1047000</v>
-      </c>
-      <c r="H20">
-        <v>1047000</v>
-      </c>
-      <c r="I20">
-        <v>1047000</v>
-      </c>
-      <c r="J20">
-        <v>1047000</v>
-      </c>
-      <c r="K20">
-        <v>1047000</v>
-      </c>
-      <c r="L20">
-        <v>1047000</v>
-      </c>
-      <c r="M20">
-        <v>1047000</v>
-      </c>
-      <c r="N20">
-        <v>1047000</v>
-      </c>
-      <c r="O20">
-        <v>1047000</v>
-      </c>
-      <c r="P20">
-        <v>1047000</v>
-      </c>
-      <c r="Q20">
-        <v>1047000</v>
-      </c>
-      <c r="R20">
-        <v>1047000</v>
-      </c>
-      <c r="S20">
-        <v>1047000</v>
-      </c>
-      <c r="T20">
-        <v>1047000</v>
-      </c>
-      <c r="U20">
-        <v>1047000</v>
-      </c>
-      <c r="V20">
-        <v>1047000</v>
-      </c>
-      <c r="W20">
-        <v>1047000</v>
-      </c>
-      <c r="X20">
-        <v>1047000</v>
-      </c>
-      <c r="Y20">
-        <v>1047000</v>
-      </c>
-      <c r="Z20">
-        <v>1047000</v>
-      </c>
-      <c r="AA20">
-        <v>1047000</v>
-      </c>
-      <c r="AB20">
-        <v>1047000</v>
-      </c>
-      <c r="AC20">
-        <v>1047000</v>
-      </c>
-      <c r="AD20">
-        <v>1047000</v>
-      </c>
-      <c r="AE20">
-        <v>1047000</v>
-      </c>
-      <c r="AF20">
-        <v>1047000</v>
-      </c>
-      <c r="AG20">
-        <v>1047000</v>
-      </c>
-      <c r="AH20">
-        <v>1047000</v>
-      </c>
-      <c r="AI20">
-        <v>1047000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="C20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="D20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="E20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="F20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="G20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="I20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="J20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="K20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="L20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="M20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="N20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="O20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="P20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="R20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="S20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="T20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="U20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="V20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="W20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="X20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AC20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AD20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AE20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AF20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AG20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AH20" s="18">
+        <v>900000</v>
+      </c>
+      <c r="AI20" s="18">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
-        <v>960000</v>
-      </c>
-      <c r="C21">
-        <v>960000</v>
-      </c>
-      <c r="D21">
-        <v>960000</v>
-      </c>
-      <c r="E21">
-        <v>960000</v>
-      </c>
-      <c r="F21">
-        <v>960000</v>
-      </c>
-      <c r="G21">
-        <v>960000</v>
-      </c>
-      <c r="H21">
-        <v>960000</v>
-      </c>
-      <c r="I21">
-        <v>960000</v>
-      </c>
-      <c r="J21">
-        <v>960000</v>
-      </c>
-      <c r="K21">
-        <v>960000</v>
-      </c>
-      <c r="L21">
-        <v>960000</v>
-      </c>
-      <c r="M21">
-        <v>960000</v>
-      </c>
-      <c r="N21">
-        <v>960000</v>
-      </c>
-      <c r="O21">
-        <v>960000</v>
-      </c>
-      <c r="P21">
-        <v>960000</v>
-      </c>
-      <c r="Q21">
-        <v>960000</v>
-      </c>
-      <c r="R21">
-        <v>960000</v>
-      </c>
-      <c r="S21">
-        <v>960000</v>
-      </c>
-      <c r="T21">
-        <v>960000</v>
-      </c>
-      <c r="U21">
-        <v>960000</v>
-      </c>
-      <c r="V21">
-        <v>960000</v>
-      </c>
-      <c r="W21">
-        <v>960000</v>
-      </c>
-      <c r="X21">
-        <v>960000</v>
-      </c>
-      <c r="Y21">
-        <v>960000</v>
-      </c>
-      <c r="Z21">
-        <v>960000</v>
-      </c>
-      <c r="AA21">
-        <v>960000</v>
-      </c>
-      <c r="AB21">
-        <v>960000</v>
-      </c>
-      <c r="AC21">
-        <v>960000</v>
-      </c>
-      <c r="AD21">
-        <v>960000</v>
-      </c>
-      <c r="AE21">
-        <v>960000</v>
-      </c>
-      <c r="AF21">
-        <v>960000</v>
-      </c>
-      <c r="AG21">
-        <v>960000</v>
-      </c>
-      <c r="AH21">
-        <v>960000</v>
-      </c>
-      <c r="AI21">
-        <v>960000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="L21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="P21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="R21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="S21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="T21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="U21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="V21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="W21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="X21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AB21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AC21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AD21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AE21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AF21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AG21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AH21" s="18">
+        <v>1053400</v>
+      </c>
+      <c r="AI21" s="18">
+        <v>1053400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B22" s="17">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <v>0</v>
+      </c>
+      <c r="T22" s="17">
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0</v>
+      </c>
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="17">
+        <v>0</v>
+      </c>
+      <c r="X22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B23" s="17">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17">
+        <v>0</v>
+      </c>
+      <c r="T23" s="17">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
+        <v>0</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B24" s="17">
+        <v>27017000</v>
+      </c>
+      <c r="C24" s="17">
+        <v>30095000</v>
+      </c>
+      <c r="D24" s="17">
+        <v>29982884.753624257</v>
+      </c>
+      <c r="E24" s="17">
+        <v>29373769.252363361</v>
+      </c>
+      <c r="F24" s="17">
+        <v>28490869.326560959</v>
+      </c>
+      <c r="G24" s="17">
+        <v>27871888.805118073</v>
+      </c>
+      <c r="H24" s="17">
+        <v>25947135.854299035</v>
+      </c>
+      <c r="I24" s="17">
+        <v>23965720.720241051</v>
+      </c>
+      <c r="J24" s="17">
+        <v>28281324.489427838</v>
+      </c>
+      <c r="K24" s="17">
+        <v>27113369.414599035</v>
+      </c>
+      <c r="L24" s="17">
+        <v>24980228.737242576</v>
+      </c>
+      <c r="M24" s="17">
+        <v>21467028.622809947</v>
+      </c>
+      <c r="N24" s="17">
+        <v>20649147.642823927</v>
+      </c>
+      <c r="O24" s="17">
+        <v>19926292.12569157</v>
+      </c>
+      <c r="P24" s="17">
+        <v>12313894.113745516</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>11434330.248477982</v>
+      </c>
+      <c r="R24" s="17">
+        <v>10554766.383210445</v>
+      </c>
+      <c r="S24" s="17">
+        <v>9675202.5179429073</v>
+      </c>
+      <c r="T24" s="17">
+        <v>8795638.6526753698</v>
+      </c>
+      <c r="U24" s="17">
+        <v>7916074.7874078332</v>
+      </c>
+      <c r="V24" s="17">
+        <v>7036510.9221402965</v>
+      </c>
+      <c r="W24" s="17">
+        <v>6156947.0568727581</v>
+      </c>
+      <c r="X24" s="17">
+        <v>5277383.1916052215</v>
+      </c>
+      <c r="Y24" s="17">
+        <v>4397819.3263376849</v>
+      </c>
+      <c r="Z24" s="17">
+        <v>3518255.4610701483</v>
+      </c>
+      <c r="AA24" s="17">
+        <v>2638691.5958026112</v>
+      </c>
+      <c r="AB24" s="17">
+        <v>1759127.7305350746</v>
+      </c>
+      <c r="AC24" s="17">
+        <v>879563.86526753777</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B25" s="17">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="17">
+        <v>0</v>
+      </c>
+      <c r="P25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>0</v>
+      </c>
+      <c r="R25" s="17">
+        <v>0</v>
+      </c>
+      <c r="S25" s="17">
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
+        <v>0</v>
+      </c>
+      <c r="U25" s="17">
+        <v>0</v>
+      </c>
+      <c r="V25" s="17">
+        <v>0</v>
+      </c>
+      <c r="W25" s="17">
+        <v>0</v>
+      </c>
+      <c r="X25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>48</v>
       </c>
       <c r="B27">
         <f>B17+B18+B20+B21</f>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" ref="C27:AI27" si="0">C17+C18+C20+C21</f>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="G27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="I27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="J27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="K27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="L27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="N27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="O27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="P27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="Q27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="R27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="S27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="T27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="U27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="V27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="W27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="X27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="Y27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="Z27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AA27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AB27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AC27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AD27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AE27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AF27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AG27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AH27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
+        <v>25854400</v>
       </c>
       <c r="AI27" s="17">
         <f t="shared" si="0"/>
-        <v>22047000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.35">
+        <v>25854400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" s="13" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>3420000</v>
       </c>
@@ -7035,445 +7573,445 @@
         <v>3420000</v>
       </c>
     </row>
-    <row r="33" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34">
         <f>B27+B31</f>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" ref="C34:AI34" si="1">C27+C31</f>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="G34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="I34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="K34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="L34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="O34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="P34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="Q34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="R34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="S34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="T34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="U34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="V34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="W34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="X34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="Y34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="Z34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AA34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AB34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AC34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AD34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AE34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AF34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AG34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AH34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
+        <v>29274400</v>
       </c>
       <c r="AI34" s="17">
         <f t="shared" si="1"/>
-        <v>25467000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+        <v>29274400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B37">
         <f>B34/B9</f>
-        <v>9.0520727174288884E-2</v>
+        <v>0.10405387268194144</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" ref="C37:AI37" si="2">C34/C9</f>
-        <v>9.0250862739703633E-2</v>
+        <v>0.10374366262956689</v>
       </c>
       <c r="D37" s="17">
         <f t="shared" si="2"/>
-        <v>8.9990376149948884E-2</v>
+        <v>0.10344423244057264</v>
       </c>
       <c r="E37" s="17">
         <f t="shared" si="2"/>
-        <v>8.9633298550437362E-2</v>
+        <v>0.10303377056916493</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" si="2"/>
-        <v>8.9292255842918888E-2</v>
+        <v>0.10264174085867769</v>
       </c>
       <c r="G37" s="17">
         <f t="shared" si="2"/>
-        <v>8.899021340375228E-2</v>
+        <v>0.10229454208453315</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="2"/>
-        <v>8.8679198294083411E-2</v>
+        <v>0.1019370291962271</v>
       </c>
       <c r="I37" s="17">
         <f t="shared" si="2"/>
-        <v>8.8412691711849123E-2</v>
+        <v>0.10163067900613956</v>
       </c>
       <c r="J37" s="17">
         <f t="shared" si="2"/>
-        <v>8.8039786530188527E-2</v>
+        <v>0.10120202327715676</v>
       </c>
       <c r="K37" s="17">
         <f t="shared" si="2"/>
-        <v>8.7716956095767365E-2</v>
+        <v>0.10083092863430841</v>
       </c>
       <c r="L37" s="17">
         <f t="shared" si="2"/>
-        <v>8.7400755681752665E-2</v>
+        <v>0.10046745522165548</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="2"/>
-        <v>8.7209665473215736E-2</v>
+        <v>0.10024779640040471</v>
       </c>
       <c r="N37" s="17">
         <f t="shared" si="2"/>
-        <v>8.6944287157763089E-2</v>
+        <v>9.9942743156681974E-2</v>
       </c>
       <c r="O37" s="17">
         <f t="shared" si="2"/>
-        <v>8.6675270186424361E-2</v>
+        <v>9.9633507266087926E-2</v>
       </c>
       <c r="P37" s="17">
         <f t="shared" si="2"/>
-        <v>8.6521965782324087E-2</v>
+        <v>9.945728335092742E-2</v>
       </c>
       <c r="Q37" s="17">
         <f t="shared" si="2"/>
-        <v>8.6285870690199148E-2</v>
+        <v>9.9185891268432316E-2</v>
       </c>
       <c r="R37" s="17">
         <f t="shared" si="2"/>
-        <v>8.6162596272584505E-2</v>
+        <v>9.904418692119793E-2</v>
       </c>
       <c r="S37" s="17">
         <f t="shared" si="2"/>
-        <v>8.5995614659252734E-2</v>
+        <v>9.8852241009181621E-2</v>
       </c>
       <c r="T37" s="17">
         <f t="shared" si="2"/>
-        <v>8.590285652852804E-2</v>
+        <v>9.8745615233782599E-2</v>
       </c>
       <c r="U37" s="17">
         <f t="shared" si="2"/>
-        <v>8.5646871682684478E-2</v>
+        <v>9.8451359814174369E-2</v>
       </c>
       <c r="V37" s="17">
         <f t="shared" si="2"/>
-        <v>8.5422535475827704E-2</v>
+        <v>9.819348460884951E-2</v>
       </c>
       <c r="W37" s="17">
         <f t="shared" si="2"/>
-        <v>8.5055402137212105E-2</v>
+        <v>9.7771463632371394E-2</v>
       </c>
       <c r="X37" s="17">
         <f t="shared" si="2"/>
-        <v>8.4714146985122404E-2</v>
+        <v>9.7379189716152961E-2</v>
       </c>
       <c r="Y37" s="17">
         <f t="shared" si="2"/>
-        <v>8.4219638626814919E-2</v>
+        <v>9.6810750736907786E-2</v>
       </c>
       <c r="Z37" s="17">
         <f t="shared" si="2"/>
-        <v>8.3725029840788112E-2</v>
+        <v>9.6242196315669992E-2</v>
       </c>
       <c r="AA37" s="17">
         <f t="shared" si="2"/>
-        <v>8.3180605289067552E-2</v>
+        <v>9.5616378508433617E-2</v>
       </c>
       <c r="AB37" s="17">
         <f t="shared" si="2"/>
-        <v>8.253265605934558E-2</v>
+        <v>9.4871558744402798E-2</v>
       </c>
       <c r="AC37" s="17">
         <f t="shared" si="2"/>
-        <v>8.1938374363244207E-2</v>
+        <v>9.4188429986231448E-2</v>
       </c>
       <c r="AD37" s="17">
         <f t="shared" si="2"/>
-        <v>8.1238388591727578E-2</v>
+        <v>9.3383794046792701E-2</v>
       </c>
       <c r="AE37" s="17">
         <f t="shared" si="2"/>
-        <v>8.0626782546183093E-2</v>
+        <v>9.268075089213422E-2</v>
       </c>
       <c r="AF37" s="17">
         <f t="shared" si="2"/>
-        <v>7.9962164241173847E-2</v>
+        <v>9.1916769971406909E-2</v>
       </c>
       <c r="AG37" s="17">
         <f t="shared" si="2"/>
-        <v>7.9371255242548233E-2</v>
+        <v>9.1237518140042176E-2</v>
       </c>
       <c r="AH37" s="17">
         <f t="shared" si="2"/>
-        <v>7.8742585266467352E-2</v>
+        <v>9.0514859941283707E-2</v>
       </c>
       <c r="AI37" s="17">
         <f t="shared" si="2"/>
-        <v>7.8212865476156315E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>8.9905945305500862E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>184</v>
       </c>
       <c r="B42">
         <f>B15+B16</f>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" ref="C42:AI42" si="3">C15+C16</f>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="D42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="E42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="F42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="G42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="I42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="J42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="K42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="L42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="M42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="N42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="O42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="P42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="Q42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="R42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="S42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="T42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="U42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="V42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="W42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="X42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="Y42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="Z42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AA42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AB42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AC42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AD42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AE42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AF42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AG42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AH42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
+        <v>13963200</v>
       </c>
       <c r="AI42" s="17">
         <f t="shared" si="3"/>
-        <v>21518400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+        <v>13963200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A45" s="17" t="s">
         <v>26</v>
       </c>
@@ -7580,7 +8118,7 @@
         <v>7910.91</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A46" s="17" t="s">
         <v>27</v>
       </c>
@@ -7687,286 +8225,286 @@
         <v>30719700</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="18">
         <f>B42+B45+B46</f>
-        <v>71217200</v>
+        <v>63662000</v>
       </c>
       <c r="C48" s="18">
         <f t="shared" ref="C48:AI48" si="4">C42+C45+C46</f>
-        <v>71217200</v>
+        <v>63662000</v>
       </c>
       <c r="D48" s="18">
         <f t="shared" si="4"/>
-        <v>71217200</v>
+        <v>63662000</v>
       </c>
       <c r="E48" s="18">
         <f t="shared" si="4"/>
-        <v>71217200</v>
+        <v>63662000</v>
       </c>
       <c r="F48" s="18">
         <f t="shared" si="4"/>
-        <v>71217200</v>
+        <v>63662000</v>
       </c>
       <c r="G48" s="18">
         <f t="shared" si="4"/>
-        <v>71217200</v>
+        <v>63662000</v>
       </c>
       <c r="H48" s="18">
         <f t="shared" si="4"/>
-        <v>71217200</v>
+        <v>63662000</v>
       </c>
       <c r="I48" s="18">
         <f t="shared" si="4"/>
-        <v>61727260</v>
+        <v>54172060</v>
       </c>
       <c r="J48" s="18">
         <f t="shared" si="4"/>
-        <v>52265810.909999996</v>
+        <v>44710610.909999996</v>
       </c>
       <c r="K48" s="18">
         <f t="shared" si="4"/>
-        <v>52265810.909999996</v>
+        <v>44710610.909999996</v>
       </c>
       <c r="L48" s="18">
         <f t="shared" si="4"/>
-        <v>52265810.909999996</v>
+        <v>44710610.909999996</v>
       </c>
       <c r="M48" s="18">
         <f t="shared" si="4"/>
-        <v>52265810.909999996</v>
+        <v>44710610.909999996</v>
       </c>
       <c r="N48" s="18">
         <f t="shared" si="4"/>
-        <v>52265810.909999996</v>
+        <v>44710610.909999996</v>
       </c>
       <c r="O48" s="18">
         <f t="shared" si="4"/>
-        <v>52265810.909999996</v>
+        <v>44710610.909999996</v>
       </c>
       <c r="P48" s="18">
         <f t="shared" si="4"/>
-        <v>52263610.909999996</v>
+        <v>44708410.909999996</v>
       </c>
       <c r="Q48" s="18">
         <f t="shared" si="4"/>
-        <v>52261410.909999996</v>
+        <v>44706210.909999996</v>
       </c>
       <c r="R48" s="18">
         <f t="shared" si="4"/>
-        <v>52261410.909999996</v>
+        <v>44706210.909999996</v>
       </c>
       <c r="S48" s="18">
         <f t="shared" si="4"/>
-        <v>52261410.909999996</v>
+        <v>44706210.909999996</v>
       </c>
       <c r="T48" s="18">
         <f t="shared" si="4"/>
-        <v>52259210.909999996</v>
+        <v>44704010.909999996</v>
       </c>
       <c r="U48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="V48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="W48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="X48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="Y48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="Z48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AA48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AB48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AC48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AD48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AE48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AF48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AG48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AH48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
+        <v>44690810.909999996</v>
       </c>
       <c r="AI48" s="18">
         <f t="shared" si="4"/>
-        <v>52246010.909999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+        <v>44690810.909999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="9">
         <f>B48/B9</f>
-        <v>0.25313671540883365</v>
+        <v>0.22628226855811753</v>
       </c>
       <c r="C49" s="9">
         <f t="shared" ref="C49:AI49" si="5">C48/C9</f>
-        <v>0.25238205292755411</v>
+        <v>0.22560766575313199</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" si="5"/>
-        <v>0.25165361512334156</v>
+        <v>0.22495650553492935</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="5"/>
-        <v>0.25065506536012122</v>
+        <v>0.22406388865268556</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="5"/>
-        <v>0.24970135637555751</v>
+        <v>0.22321135553743679</v>
       </c>
       <c r="G49" s="9">
         <f t="shared" si="5"/>
-        <v>0.24885670970344786</v>
+        <v>0.22245631467034505</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="5"/>
-        <v>0.24798697140414644</v>
+        <v>0.2216788440647873</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="5"/>
-        <v>0.21429588128154695</v>
+        <v>0.18806681745693618</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="5"/>
-        <v>0.18068366259644239</v>
+        <v>0.15456522716263077</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="5"/>
-        <v>0.18002111913072402</v>
+        <v>0.15399845659902647</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="5"/>
-        <v>0.1793721824264182</v>
+        <v>0.15344332589338416</v>
       </c>
       <c r="M49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17898000884075269</v>
+        <v>0.15310784232788352</v>
       </c>
       <c r="N49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17843537410344315</v>
+        <v>0.15264193638662013</v>
       </c>
       <c r="O49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17788327176883087</v>
+        <v>0.15216964231453811</v>
       </c>
       <c r="P49" s="9">
         <f t="shared" si="5"/>
-        <v>0.1775611715088436</v>
+        <v>0.15189302230090332</v>
       </c>
       <c r="Q49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17706920107855745</v>
+        <v>0.15147109332190795</v>
       </c>
       <c r="R49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17681622683763193</v>
+        <v>0.15125469044313591</v>
       </c>
       <c r="S49" s="9">
         <f t="shared" si="5"/>
-        <v>0.1764735600646023</v>
+        <v>0.15096156148316017</v>
       </c>
       <c r="T49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17627578816098549</v>
+        <v>0.15079130778856883</v>
       </c>
       <c r="U49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17570610564027578</v>
+        <v>0.15029756733827643</v>
       </c>
       <c r="V49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17524587585620435</v>
+        <v>0.14990389054081685</v>
       </c>
       <c r="W49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17449269517474461</v>
+        <v>0.14925962593898598</v>
       </c>
       <c r="X49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17379260406078645</v>
+        <v>0.14866077371948214</v>
       </c>
       <c r="Y49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17277811122365527</v>
+        <v>0.14779298483447273</v>
       </c>
       <c r="Z49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17176341235724235</v>
+        <v>0.14692501971369884</v>
       </c>
       <c r="AA49" s="9">
         <f t="shared" si="5"/>
-        <v>0.17064651554690488</v>
+        <v>0.14596963530659532</v>
       </c>
       <c r="AB49" s="9">
         <f t="shared" si="5"/>
-        <v>0.16931723598805695</v>
+        <v>0.14483258043147126</v>
       </c>
       <c r="AC49" s="9">
         <f t="shared" si="5"/>
-        <v>0.1680980563446704</v>
+        <v>0.14378970412457448</v>
       </c>
       <c r="AD49" s="9">
         <f t="shared" si="5"/>
-        <v>0.16666202287957821</v>
+        <v>0.1425613328301723</v>
       </c>
       <c r="AE49" s="9">
         <f t="shared" si="5"/>
-        <v>0.16540730202010756</v>
+        <v>0.14148805485739022</v>
       </c>
       <c r="AF49" s="9">
         <f t="shared" si="5"/>
-        <v>0.16404382555195274</v>
+        <v>0.14032174822541579</v>
       </c>
       <c r="AG49" s="9">
         <f t="shared" si="5"/>
-        <v>0.16283156505841165</v>
+        <v>0.13928479050277101</v>
       </c>
       <c r="AH49" s="9">
         <f t="shared" si="5"/>
-        <v>0.16154183723695206</v>
+        <v>0.13818156786069205</v>
       </c>
       <c r="AI49" s="9">
         <f t="shared" si="5"/>
-        <v>0.16045510751048905</v>
+        <v>0.13725198813068554</v>
       </c>
     </row>
   </sheetData>
@@ -7976,18 +8514,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.cpuc.ca.gov/uploadedFiles/CPUCWebsite/Content/UtilitiesIndustries/Energy/EnergyPrograms/ElectPowerProcurementGeneration/irp/2018/2019 IRP Preliminary Results 20191004.pdf"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -7995,17 +8557,17 @@
         <v>191236</v>
       </c>
     </row>
-    <row r="19" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="19:19" ht="14.55" x14ac:dyDescent="0.35">
       <c r="S19" s="33">
         <v>254584</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -8016,7 +8578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -8028,7 +8590,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>176</v>
       </c>
@@ -8037,22 +8599,22 @@
         <v>0.7506309706333294</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="23.55" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A48" s="39" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A49" s="39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" ht="23.55" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.35">
@@ -8060,15 +8622,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A52" s="41" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A53" s="42"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A54" s="42"/>
     </row>
   </sheetData>
@@ -8080,118 +8642,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="4" width="10.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
     </row>
     <row r="2" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-    </row>
-    <row r="3" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+    </row>
+    <row r="3" spans="1:29" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
     </row>
     <row r="4" spans="1:29" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
@@ -8282,7 +8844,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>119</v>
       </c>
@@ -8371,7 +8933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="26.55" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>120</v>
       </c>
@@ -8816,7 +9378,7 @@
         <v>147482454</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="76" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="76.05" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>125</v>
       </c>
@@ -8994,7 +9556,7 @@
         <v>16572153</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="26.55" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>127</v>
       </c>
@@ -9083,7 +9645,7 @@
         <v>18302455</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>128</v>
       </c>
@@ -9172,7 +9734,7 @@
         <v>165784910</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>129</v>
       </c>
@@ -9261,7 +9823,7 @@
         <v>5142187</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>130</v>
       </c>
@@ -9350,7 +9912,7 @@
         <v>66087034</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>131</v>
       </c>
@@ -9439,7 +10001,7 @@
         <v>237014131</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>132</v>
       </c>
@@ -9528,7 +10090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>133</v>
       </c>
@@ -9617,7 +10179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>134</v>
       </c>
@@ -9706,7 +10268,7 @@
         <v>211092922</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>135</v>
       </c>
@@ -9795,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>136</v>
       </c>
@@ -9884,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" ht="26.55" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>137</v>
       </c>
@@ -9973,7 +10535,7 @@
         <v>211092922</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>138</v>
       </c>
@@ -10062,7 +10624,7 @@
         <v>9653985</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>139</v>
       </c>
@@ -10151,7 +10713,7 @@
         <v>523792</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>140</v>
       </c>
@@ -10240,7 +10802,7 @@
         <v>16026342</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>141</v>
       </c>
@@ -10329,7 +10891,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>143</v>
       </c>
@@ -10418,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>144</v>
       </c>
@@ -10507,7 +11069,7 @@
         <v>237014131</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>145</v>
       </c>
@@ -10596,7 +11158,7 @@
         <v>-66087034</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>146</v>
       </c>
@@ -10685,40 +11247,40 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
+    <row r="32" spans="1:29" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+    </row>
+    <row r="33" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -10749,11 +11311,16 @@
       <c r="AB33" s="31"/>
       <c r="AC33" s="31"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B36">
         <f>B23/(B23+B24)</f>
         <v>0.95262264872417801</v>
       </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10766,7 +11333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:C18"/>
   <sheetViews>
@@ -10774,7 +11341,7 @@
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -10785,27 +11352,6 @@
       </c>
       <c r="C18" t="s">
         <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="A20:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -10816,312 +11362,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O32"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="F21" sqref="A20:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="69.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3"/>
-      <c r="B3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="str">
-        <f>'EIA-CHP Table 10'!$A$23</f>
-        <v>Total electric industry retail sales</v>
-      </c>
-      <c r="B4" s="33">
-        <f>'EIA-CHP Table 10'!$B$23</f>
-        <v>257267937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="str">
-        <f>'EIA-CHP Table 10'!A17</f>
-        <v>Total supply</v>
-      </c>
-      <c r="B5" s="17">
-        <f>'EIA-CHP Table 10'!B17</f>
-        <v>286228469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="str">
-        <f>'EIA-CHP Table 10'!A25</f>
-        <v>Total international exports</v>
-      </c>
-      <c r="B6" s="17">
-        <f>'EIA-CHP Table 10'!B25</f>
-        <v>459224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="str">
-        <f>'EIA-CHP Table 10'!A23</f>
-        <v>Total electric industry retail sales</v>
-      </c>
-      <c r="B10" s="17">
-        <f>'EIA-CHP Table 10'!B23</f>
-        <v>257267937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="32">
-        <f>'EIA-CHP Table 10'!$B$13</f>
-        <v>16382372</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="str">
-        <f>'EIA-CHP Table 10'!A27</f>
-        <v>Unaccounted</v>
-      </c>
-      <c r="B12" s="32">
-        <f>'EIA-CHP Table 10'!B27</f>
-        <v>1711477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="36">
-        <f>B11+B12</f>
-        <v>18093849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="17">
-        <f>B10/SUM(B10:B12)</f>
-        <v>0.9342906317436509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="str">
-        <f>'CHP notes from the IRP'!K4</f>
-        <v>% decline</v>
-      </c>
-      <c r="B17" s="17">
-        <f>'CHP notes from the IRP'!L4</f>
-        <v>0.83543286649820914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="17">
-        <f>1-B17</f>
-        <v>0.16456713350179086</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="17">
-        <v>2017</v>
-      </c>
-      <c r="C20" s="17">
-        <f>B20+1</f>
-        <v>2018</v>
-      </c>
-      <c r="D20" s="17">
-        <f t="shared" ref="D20:N20" si="0">C20+1</f>
-        <v>2019</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="F20" s="17">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="G20" s="17">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="K20" s="17">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="L20" s="17">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="M20" s="17">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="N20" s="17">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="O20" s="17">
-        <f>N20+1</f>
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="37">
-        <v>1</v>
-      </c>
-      <c r="C21" s="45">
-        <f>B21-($B$21-$O$21)/13</f>
-        <v>0.93573593334629157</v>
-      </c>
-      <c r="D21" s="45">
-        <f t="shared" ref="D21:N21" si="1">C21-($B$21-$O$21)/13</f>
-        <v>0.87147186669258314</v>
-      </c>
-      <c r="E21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.80720780003887471</v>
-      </c>
-      <c r="F21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.74294373338516628</v>
-      </c>
-      <c r="G21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.67867966673145785</v>
-      </c>
-      <c r="H21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.61441560007774942</v>
-      </c>
-      <c r="I21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.55015153342404099</v>
-      </c>
-      <c r="J21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.48588746677033257</v>
-      </c>
-      <c r="K21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.42162340011662414</v>
-      </c>
-      <c r="L21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.35735933346291571</v>
-      </c>
-      <c r="M21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.29309526680920728</v>
-      </c>
-      <c r="N21" s="45">
-        <f t="shared" si="1"/>
-        <v>0.22883120015549888</v>
-      </c>
-      <c r="O21" s="37">
-        <f>$B$18</f>
-        <v>0.16456713350179086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="str">
-        <f>'EIA-CHP Table 10'!A9</f>
-        <v>..Combined heat and power, electric</v>
-      </c>
-      <c r="B28" s="17">
-        <f>'EIA-CHP Table 10'!B9</f>
-        <v>15865433</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29"/>
-      <c r="B29" t="str">
-        <f>'EIA-CHP Table 10'!B5</f>
-        <v/>
-      </c>
-      <c r="C29"/>
-      <c r="D29" s="8"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" t="str">
-        <f>'EIA-CHP Table 10'!B6</f>
-        <v/>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D31" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D32" s="35" t="s">
-        <v>152</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6323" yWindow="3810" windowWidth="12878" windowHeight="3413" activeTab="1"/>
+    <workbookView xWindow="5093" yWindow="1253" windowWidth="12878" windowHeight="3413" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="205">
   <si>
     <t>BRPSPTY BAU Renewable Portfolio Std Percentage This Year</t>
   </si>
@@ -695,23 +695,21 @@
     <t>Need MWh factoring in approximate curtailment</t>
   </si>
   <si>
-    <t xml:space="preserve">increase slightly because results coming in below </t>
-  </si>
-  <si>
-    <t>round up</t>
+    <t>adjustment found after observing endogenous curtailment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1358,7 +1356,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1461,7 +1459,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1471,7 +1471,7 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2344,66 +2344,66 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
         <v>87</v>
       </c>
@@ -2723,7 +2723,7 @@
     <row r="7" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="str">
         <f>'EIA-CHP Table 10'!A23</f>
         <v>Total electric industry retail sales</v>
@@ -2733,7 +2733,7 @@
         <v>257267937</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>164</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="str">
         <f>'EIA-CHP Table 10'!A27</f>
         <v>Unaccounted</v>
@@ -2755,7 +2755,7 @@
         <v>1711477</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17" t="s">
         <v>165</v>
       </c>
@@ -2764,8 +2764,8 @@
         <v>18093849</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
         <v>148</v>
       </c>
@@ -2774,8 +2774,8 @@
         <v>0.9342906317436509</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="str">
         <f>'CHP notes from the IRP'!K4</f>
         <v>% decline</v>
@@ -2785,7 +2785,7 @@
         <v>0.83543286649820914</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>166</v>
       </c>
@@ -2794,8 +2794,8 @@
         <v>0.16456713350179086</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B20" s="17">
         <v>2017</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="37">
         <v>1</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0.16456713350179086</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="17" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -3060,8 +3060,8 @@
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3232,9 +3232,9 @@
         <f>'SB100 RPS and sales adjustment'!N34</f>
         <v>0.44028661207461534</v>
       </c>
-      <c r="O2" s="5">
-        <f>'SB100 RPS and sales adjustment'!$O$36</f>
-        <v>0.46750000000000003</v>
+      <c r="O2" s="53">
+        <f>'SB100 RPS and sales adjustment'!$O$34</f>
+        <v>0.46573331721057465</v>
       </c>
       <c r="P2" s="5">
         <v>0</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="5">
-        <f t="shared" ref="Q2:AI2" si="0">AE2</f>
+        <f t="shared" ref="AF2:AI2" si="0">AE2</f>
         <v>0</v>
       </c>
       <c r="AG2" s="5">
@@ -3309,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4530,7 +4530,7 @@
         <v>302979642.44538897</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -4566,13 +4566,13 @@
       <c r="AH25" s="46"/>
       <c r="AI25" s="46"/>
     </row>
-    <row r="26" spans="1:36" s="43" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="43" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="51" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:36" s="51" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>190</v>
       </c>
@@ -4713,8 +4713,8 @@
         <v>29274400</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="51" customFormat="1" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>188</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
     </row>
-    <row r="31" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>202</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="AI31" s="19"/>
       <c r="AJ31" s="19"/>
     </row>
-    <row r="32" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>203</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="AI32" s="19"/>
       <c r="AJ32" s="19"/>
     </row>
-    <row r="33" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -4961,8 +4961,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
+      <c r="O33" s="54"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -4984,7 +4983,7 @@
       <c r="AI33" s="19"/>
       <c r="AJ33" s="19"/>
     </row>
-    <row r="34" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>194</v>
       </c>
@@ -5040,11 +5039,13 @@
         <f t="shared" si="12"/>
         <v>0.44028661207461534</v>
       </c>
-      <c r="O34" s="56">
+      <c r="O34" s="58">
         <f t="shared" si="12"/>
         <v>0.46573331721057465</v>
       </c>
-      <c r="P34" s="45"/>
+      <c r="P34" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="Q34" s="45"/>
       <c r="R34" s="45"/>
       <c r="S34" s="45"/>
@@ -5065,22 +5066,19 @@
       <c r="AH34" s="45"/>
       <c r="AI34" s="45"/>
     </row>
-    <row r="35" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="N35" s="52"/>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="N35" s="45"/>
       <c r="O35" s="52"/>
       <c r="P35" s="45"/>
       <c r="Q35" s="45"/>
@@ -5103,7 +5101,7 @@
       <c r="AH35" s="45"/>
       <c r="AI35" s="45"/>
     </row>
-    <row r="36" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
@@ -5115,382 +5113,330 @@
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
       <c r="L36" s="49"/>
-      <c r="M36" s="49" t="s">
-        <v>205</v>
-      </c>
+      <c r="M36" s="49"/>
       <c r="N36" s="49"/>
-      <c r="O36" s="50">
-        <v>0.46750000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-    </row>
-    <row r="38" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-    </row>
-    <row r="39" spans="1:36" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-    </row>
-    <row r="40" spans="1:36" s="43" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A40" s="43" t="s">
+      <c r="O36" s="49"/>
+    </row>
+    <row r="37" spans="1:36" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B37" s="48">
         <v>2017</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C37" s="48">
         <v>2018</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D37" s="48">
         <v>2019</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E37" s="48">
         <v>2020</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F37" s="48">
         <v>2021</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G37" s="48">
         <v>2022</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H37" s="48">
         <v>2023</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I37" s="48">
         <v>2024</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J37" s="48">
         <v>2025</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K37" s="48">
         <v>2026</v>
       </c>
-      <c r="L40" s="48">
+      <c r="L37" s="48">
         <v>2027</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M37" s="48">
         <v>2028</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N37" s="48">
         <v>2029</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O37" s="48">
         <v>2030</v>
       </c>
-      <c r="P40" s="48">
+      <c r="P37" s="48">
         <v>2031</v>
       </c>
-      <c r="Q40" s="48">
+      <c r="Q37" s="48">
         <v>2032</v>
       </c>
-      <c r="R40" s="48">
+      <c r="R37" s="48">
         <v>2033</v>
       </c>
-      <c r="S40" s="48">
+      <c r="S37" s="48">
         <v>2034</v>
       </c>
-      <c r="T40" s="48">
+      <c r="T37" s="48">
         <v>2035</v>
       </c>
-      <c r="U40" s="48">
+      <c r="U37" s="48">
         <v>2036</v>
       </c>
-      <c r="V40" s="48">
+      <c r="V37" s="48">
         <v>2037</v>
       </c>
-      <c r="W40" s="48">
+      <c r="W37" s="48">
         <v>2038</v>
       </c>
-      <c r="X40" s="48">
+      <c r="X37" s="48">
         <v>2039</v>
       </c>
-      <c r="Y40" s="48">
+      <c r="Y37" s="48">
         <v>2040</v>
       </c>
-      <c r="Z40" s="48">
+      <c r="Z37" s="48">
         <v>2041</v>
       </c>
-      <c r="AA40" s="48">
+      <c r="AA37" s="48">
         <v>2042</v>
       </c>
-      <c r="AB40" s="48">
+      <c r="AB37" s="48">
         <v>2043</v>
       </c>
-      <c r="AC40" s="48">
+      <c r="AC37" s="48">
         <v>2044</v>
       </c>
-      <c r="AD40" s="48">
+      <c r="AD37" s="48">
         <v>2045</v>
       </c>
-      <c r="AE40" s="48">
+      <c r="AE37" s="48">
         <v>2046</v>
       </c>
-      <c r="AF40" s="48">
+      <c r="AF37" s="48">
         <v>2047</v>
       </c>
-      <c r="AG40" s="48">
+      <c r="AG37" s="48">
         <v>2048</v>
       </c>
-      <c r="AH40" s="48">
+      <c r="AH37" s="48">
         <v>2049</v>
       </c>
-      <c r="AI40" s="48">
+      <c r="AI37" s="48">
         <v>2050</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O38" s="8">
         <v>0.6</v>
       </c>
-      <c r="P41" s="8">
-        <f>O41+($AD$41-$O$41)/15</f>
+      <c r="P38" s="8">
+        <f>O38+($AD$38-$O$38)/15</f>
         <v>0.62666666666666659</v>
       </c>
-      <c r="Q41" s="8">
-        <f t="shared" ref="Q41:AC41" si="13">P41+($AD$41-$O$41)/15</f>
+      <c r="Q38" s="8">
+        <f t="shared" ref="Q38:AC38" si="13">P38+($AD$38-$O$38)/15</f>
         <v>0.65333333333333321</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R38" s="8">
         <f t="shared" si="13"/>
         <v>0.67999999999999983</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S38" s="8">
         <f t="shared" si="13"/>
         <v>0.70666666666666644</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T38" s="8">
         <f t="shared" si="13"/>
         <v>0.73333333333333306</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U38" s="8">
         <f t="shared" si="13"/>
         <v>0.75999999999999968</v>
       </c>
-      <c r="V41" s="8">
+      <c r="V38" s="8">
         <f t="shared" si="13"/>
         <v>0.78666666666666629</v>
       </c>
-      <c r="W41" s="8">
+      <c r="W38" s="8">
         <f t="shared" si="13"/>
         <v>0.81333333333333291</v>
       </c>
-      <c r="X41" s="8">
+      <c r="X38" s="8">
         <f t="shared" si="13"/>
         <v>0.83999999999999952</v>
       </c>
-      <c r="Y41" s="8">
+      <c r="Y38" s="8">
         <f t="shared" si="13"/>
         <v>0.86666666666666614</v>
       </c>
-      <c r="Z41" s="8">
+      <c r="Z38" s="8">
         <f t="shared" si="13"/>
         <v>0.89333333333333276</v>
       </c>
-      <c r="AA41" s="8">
+      <c r="AA38" s="8">
         <f t="shared" si="13"/>
         <v>0.91999999999999937</v>
       </c>
-      <c r="AB41" s="8">
+      <c r="AB38" s="8">
         <f t="shared" si="13"/>
         <v>0.94666666666666599</v>
       </c>
-      <c r="AC41" s="8">
+      <c r="AC38" s="8">
         <f t="shared" si="13"/>
         <v>0.97333333333333261</v>
       </c>
-      <c r="AD41" s="8">
+      <c r="AD38" s="8">
         <v>1</v>
       </c>
-      <c r="AE41" s="8">
+      <c r="AE38" s="8">
         <v>1</v>
       </c>
-      <c r="AF41" s="8">
+      <c r="AF38" s="8">
         <v>1</v>
       </c>
-      <c r="AG41" s="8">
+      <c r="AG38" s="8">
         <v>1</v>
       </c>
-      <c r="AH41" s="8">
+      <c r="AH38" s="8">
         <v>1</v>
       </c>
-      <c r="AI41" s="8">
+      <c r="AI38" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A42" s="8" t="s">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P42" s="8">
-        <f>P41-O41</f>
+      <c r="P39" s="8">
+        <f>P38-O38</f>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="Q42" s="8">
-        <f t="shared" ref="Q42:AD42" si="14">Q41-P41</f>
+      <c r="Q39" s="8">
+        <f t="shared" ref="Q39:AD39" si="14">Q38-P38</f>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="R42" s="8">
+      <c r="R39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="V42" s="8">
+      <c r="V39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="W42" s="8">
+      <c r="W39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="X42" s="8">
+      <c r="X39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="Y42" s="8">
+      <c r="Y39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="Z42" s="8">
+      <c r="Z39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="AA42" s="8">
+      <c r="AA39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="AB42" s="8">
+      <c r="AB39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AC39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="AD42" s="8">
+      <c r="AD39" s="8">
         <f t="shared" si="14"/>
         <v>2.6666666666667393E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="O43" s="50">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="O40" s="50">
         <f>O34</f>
         <v>0.46573331721057465</v>
       </c>
-      <c r="P43" s="50">
-        <f>O43+P42</f>
+      <c r="P40" s="50">
+        <f>O40+P39</f>
         <v>0.49239998387724127</v>
       </c>
-      <c r="Q43" s="50">
-        <f t="shared" ref="Q43:AD43" si="15">P43+Q42</f>
+      <c r="Q40" s="50">
+        <f t="shared" ref="Q40:AD40" si="15">P40+Q39</f>
         <v>0.51906665054390788</v>
       </c>
-      <c r="R43" s="50">
+      <c r="R40" s="50">
         <f t="shared" si="15"/>
         <v>0.5457333172105745</v>
       </c>
-      <c r="S43" s="50">
+      <c r="S40" s="50">
         <f t="shared" si="15"/>
         <v>0.57239998387724111</v>
       </c>
-      <c r="T43" s="50">
+      <c r="T40" s="50">
         <f t="shared" si="15"/>
         <v>0.59906665054390773</v>
       </c>
-      <c r="U43" s="50">
+      <c r="U40" s="50">
         <f t="shared" si="15"/>
         <v>0.62573331721057435</v>
       </c>
-      <c r="V43" s="50">
+      <c r="V40" s="50">
         <f t="shared" si="15"/>
         <v>0.65239998387724096</v>
       </c>
-      <c r="W43" s="50">
+      <c r="W40" s="50">
         <f t="shared" si="15"/>
         <v>0.67906665054390758</v>
       </c>
-      <c r="X43" s="50">
+      <c r="X40" s="50">
         <f t="shared" si="15"/>
         <v>0.7057333172105742</v>
       </c>
-      <c r="Y43" s="50">
+      <c r="Y40" s="50">
         <f t="shared" si="15"/>
         <v>0.73239998387724081</v>
       </c>
-      <c r="Z43" s="50">
+      <c r="Z40" s="50">
         <f t="shared" si="15"/>
         <v>0.75906665054390743</v>
       </c>
-      <c r="AA43" s="50">
+      <c r="AA40" s="50">
         <f t="shared" si="15"/>
         <v>0.78573331721057404</v>
       </c>
-      <c r="AB43" s="50">
+      <c r="AB40" s="50">
         <f t="shared" si="15"/>
         <v>0.81239998387724066</v>
       </c>
-      <c r="AC43" s="50">
+      <c r="AC40" s="50">
         <f t="shared" si="15"/>
         <v>0.83906665054390728</v>
       </c>
-      <c r="AD43" s="50">
+      <c r="AD40" s="50">
         <f t="shared" si="15"/>
         <v>0.86573331721057467</v>
       </c>
-      <c r="AE43" s="8">
+      <c r="AE40" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6569,7 +6515,7 @@
         <v>5268000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -6676,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6783,7 +6729,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6890,7 +6836,7 @@
         <v>1053400</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -6997,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -7104,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -7211,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -7318,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -7459,17 +7405,17 @@
         <v>25854400</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="13" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>3420000</v>
       </c>
@@ -8614,23 +8560,23 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="23.55" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A50" s="38"/>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A51" s="40">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="41" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="42"/>
     </row>
-    <row r="54" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="42"/>
     </row>
   </sheetData>
@@ -8657,103 +8603,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
     </row>
     <row r="2" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
     </row>
     <row r="3" spans="1:29" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
     </row>
     <row r="4" spans="1:29" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
@@ -10535,7 +10481,7 @@
         <v>211092922</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>138</v>
       </c>
@@ -10624,7 +10570,7 @@
         <v>9653985</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>139</v>
       </c>
@@ -10713,7 +10659,7 @@
         <v>523792</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>140</v>
       </c>
@@ -10802,7 +10748,7 @@
         <v>16026342</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>141</v>
       </c>
@@ -10891,7 +10837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>143</v>
       </c>
@@ -10980,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29" s="29" t="s">
         <v>144</v>
       </c>
@@ -11069,7 +11015,7 @@
         <v>237014131</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>145</v>
       </c>
@@ -11158,7 +11104,7 @@
         <v>-66087034</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31" s="22" t="s">
         <v>146</v>
       </c>
@@ -11247,40 +11193,40 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="55" t="s">
+    <row r="32" spans="1:29" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-    </row>
-    <row r="33" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -11311,7 +11257,7 @@
       <c r="AB33" s="31"/>
       <c r="AC33" s="31"/>
     </row>
-    <row r="36" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B36">
         <f>B23/(B23+B24)</f>
         <v>0.95262264872417801</v>
@@ -11343,7 +11289,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>179</v>
       </c>
